--- a/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2838687566261342</v>
+        <v>0.2838687566260631</v>
       </c>
       <c r="D2">
         <v>1.957932989221774</v>
       </c>
       <c r="E2">
-        <v>3.142428692398028</v>
+        <v>3.142428692398113</v>
       </c>
       <c r="F2">
-        <v>24.95927581001752</v>
+        <v>24.95927581001814</v>
       </c>
       <c r="G2">
-        <v>22.78869990792222</v>
+        <v>22.78869990792288</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1989608601883646</v>
+        <v>0.1989608601883788</v>
       </c>
       <c r="D3">
-        <v>1.326814051223494</v>
+        <v>1.326814051223295</v>
       </c>
       <c r="E3">
         <v>2.045005520870319</v>
       </c>
       <c r="F3">
-        <v>17.28784306907346</v>
+        <v>17.28784306907329</v>
       </c>
       <c r="G3">
-        <v>15.75235958328972</v>
+        <v>15.75235958328955</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -494,16 +494,16 @@
         <v>0.167829659068417</v>
       </c>
       <c r="D4">
-        <v>1.108190115484462</v>
+        <v>1.108190115484916</v>
       </c>
       <c r="E4">
-        <v>1.689488965282706</v>
+        <v>1.689488965282663</v>
       </c>
       <c r="F4">
         <v>14.53995308306389</v>
       </c>
       <c r="G4">
-        <v>13.23977750410086</v>
+        <v>13.2397775041008</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1568302618147612</v>
+        <v>0.1568302618143917</v>
       </c>
       <c r="D5">
-        <v>1.032145870892748</v>
+        <v>1.032145870892919</v>
       </c>
       <c r="E5">
-        <v>1.567928244501971</v>
+        <v>1.567928244501914</v>
       </c>
       <c r="F5">
         <v>13.57523485412725</v>
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1550760929183213</v>
+        <v>0.155076092918236</v>
       </c>
       <c r="D6">
-        <v>1.020071520852753</v>
+        <v>1.020071520852554</v>
       </c>
       <c r="E6">
-        <v>1.548716615168345</v>
+        <v>1.548716615168445</v>
       </c>
       <c r="F6">
-        <v>13.42166042963663</v>
+        <v>13.4216604296364</v>
       </c>
       <c r="G6">
-        <v>12.21814856264575</v>
+        <v>12.21814856264561</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1676759711531446</v>
+        <v>0.1676759711533862</v>
       </c>
       <c r="D7">
-        <v>1.107123544427139</v>
+        <v>1.107123544427168</v>
       </c>
       <c r="E7">
-        <v>1.687777046215245</v>
+        <v>1.687777046215288</v>
       </c>
       <c r="F7">
-        <v>14.5264525985001</v>
+        <v>14.52645259850027</v>
       </c>
       <c r="G7">
-        <v>13.22744105613447</v>
+        <v>13.22744105613452</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D8">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E8">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F8">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G8">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D9">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E9">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F9">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G9">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D10">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E10">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F10">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G10">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D11">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E11">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F11">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G11">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D12">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E12">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F12">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G12">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D13">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E13">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F13">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G13">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D14">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E14">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F14">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G14">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D15">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E15">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F15">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G15">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D16">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E16">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F16">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G16">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D17">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E17">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F17">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G17">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D18">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E18">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F18">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G18">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D19">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E19">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F19">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G19">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D20">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E20">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F20">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G20">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D21">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E21">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F21">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G21">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D22">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E22">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F22">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G22">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D23">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E23">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F23">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G23">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D24">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E24">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F24">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G24">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2443674853611526</v>
+        <v>0.2443674853605984</v>
       </c>
       <c r="D25">
-        <v>1.65665709156346</v>
+        <v>1.656657091563062</v>
       </c>
       <c r="E25">
-        <v>2.602528838326535</v>
+        <v>2.602528838326378</v>
       </c>
       <c r="F25">
-        <v>21.35135745724546</v>
+        <v>21.35135745724494</v>
       </c>
       <c r="G25">
-        <v>19.47480057265574</v>
+        <v>19.47480057265514</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2838687566260631</v>
+        <v>0.2838687566261342</v>
       </c>
       <c r="D2">
         <v>1.957932989221774</v>
       </c>
       <c r="E2">
-        <v>3.142428692398113</v>
+        <v>3.142428692398028</v>
       </c>
       <c r="F2">
-        <v>24.95927581001814</v>
+        <v>24.95927581001752</v>
       </c>
       <c r="G2">
-        <v>22.78869990792288</v>
+        <v>22.78869990792222</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1989608601883788</v>
+        <v>0.1989608601883646</v>
       </c>
       <c r="D3">
-        <v>1.326814051223295</v>
+        <v>1.326814051223494</v>
       </c>
       <c r="E3">
         <v>2.045005520870319</v>
       </c>
       <c r="F3">
-        <v>17.28784306907329</v>
+        <v>17.28784306907346</v>
       </c>
       <c r="G3">
-        <v>15.75235958328955</v>
+        <v>15.75235958328972</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -494,16 +494,16 @@
         <v>0.167829659068417</v>
       </c>
       <c r="D4">
-        <v>1.108190115484916</v>
+        <v>1.108190115484462</v>
       </c>
       <c r="E4">
-        <v>1.689488965282663</v>
+        <v>1.689488965282706</v>
       </c>
       <c r="F4">
         <v>14.53995308306389</v>
       </c>
       <c r="G4">
-        <v>13.2397775041008</v>
+        <v>13.23977750410086</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1568302618143917</v>
+        <v>0.1568302618147612</v>
       </c>
       <c r="D5">
-        <v>1.032145870892919</v>
+        <v>1.032145870892748</v>
       </c>
       <c r="E5">
-        <v>1.567928244501914</v>
+        <v>1.567928244501971</v>
       </c>
       <c r="F5">
         <v>13.57523485412725</v>
@@ -567,19 +567,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.155076092918236</v>
+        <v>0.1550760929183213</v>
       </c>
       <c r="D6">
-        <v>1.020071520852554</v>
+        <v>1.020071520852753</v>
       </c>
       <c r="E6">
-        <v>1.548716615168445</v>
+        <v>1.548716615168345</v>
       </c>
       <c r="F6">
-        <v>13.4216604296364</v>
+        <v>13.42166042963663</v>
       </c>
       <c r="G6">
-        <v>12.21814856264561</v>
+        <v>12.21814856264575</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1676759711533862</v>
+        <v>0.1676759711531446</v>
       </c>
       <c r="D7">
-        <v>1.107123544427168</v>
+        <v>1.107123544427139</v>
       </c>
       <c r="E7">
-        <v>1.687777046215288</v>
+        <v>1.687777046215245</v>
       </c>
       <c r="F7">
-        <v>14.52645259850027</v>
+        <v>14.5264525985001</v>
       </c>
       <c r="G7">
-        <v>13.22744105613452</v>
+        <v>13.22744105613447</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D8">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E8">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F8">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G8">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D9">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E9">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F9">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G9">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D10">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E10">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F10">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G10">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D11">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E11">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F11">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G11">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D12">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E12">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F12">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G12">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -833,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D13">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E13">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F13">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G13">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D14">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E14">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F14">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G14">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D15">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E15">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F15">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G15">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D16">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E16">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F16">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G16">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D17">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E17">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F17">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G17">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D18">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E18">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F18">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G18">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D19">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E19">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F19">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G19">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D20">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E20">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F20">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G20">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D21">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E21">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F21">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G21">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D22">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E22">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F22">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G22">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D23">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E23">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F23">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G23">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D24">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E24">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F24">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G24">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2443674853605984</v>
+        <v>0.2443674853611526</v>
       </c>
       <c r="D25">
-        <v>1.656657091563062</v>
+        <v>1.65665709156346</v>
       </c>
       <c r="E25">
-        <v>2.602528838326378</v>
+        <v>2.602528838326535</v>
       </c>
       <c r="F25">
-        <v>21.35135745724494</v>
+        <v>21.35135745724546</v>
       </c>
       <c r="G25">
-        <v>19.47480057265514</v>
+        <v>19.47480057265574</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,22 +418,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2838687566261342</v>
+        <v>0.2819770067507221</v>
       </c>
       <c r="D2">
-        <v>1.957932989221774</v>
+        <v>1.93679025910518</v>
       </c>
       <c r="E2">
-        <v>3.142428692398028</v>
+        <v>3.114205052654995</v>
       </c>
       <c r="F2">
-        <v>24.95927581001752</v>
+        <v>24.73053123442702</v>
       </c>
       <c r="G2">
-        <v>22.78869990792222</v>
+        <v>7.624429765388498</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>14.93680169868657</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,22 +459,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1989608601883646</v>
+        <v>0.1985867056534971</v>
       </c>
       <c r="D3">
-        <v>1.326814051223494</v>
+        <v>1.319911929787224</v>
       </c>
       <c r="E3">
-        <v>2.045005520870319</v>
+        <v>2.040437085141718</v>
       </c>
       <c r="F3">
-        <v>17.28784306907346</v>
+        <v>17.21750806405294</v>
       </c>
       <c r="G3">
-        <v>15.75235958328972</v>
+        <v>5.297219569733073</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.3802014097873</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,22 +500,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.167829659068417</v>
+        <v>0.1676049792619381</v>
       </c>
       <c r="D4">
-        <v>1.108190115484462</v>
+        <v>1.103094963521613</v>
       </c>
       <c r="E4">
-        <v>1.689488965282706</v>
+        <v>1.686885449802944</v>
       </c>
       <c r="F4">
-        <v>14.53995308306389</v>
+        <v>14.4890299571332</v>
       </c>
       <c r="G4">
-        <v>13.23977750410086</v>
+        <v>4.453700632131643</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.731342890589076</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,22 +541,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1568302618147612</v>
+        <v>0.1566437284460847</v>
       </c>
       <c r="D5">
-        <v>1.032145870892748</v>
+        <v>1.027569503684106</v>
       </c>
       <c r="E5">
-        <v>1.567928244501971</v>
+        <v>1.565802413161961</v>
       </c>
       <c r="F5">
-        <v>13.57523485412725</v>
+        <v>13.52979941849327</v>
       </c>
       <c r="G5">
-        <v>12.35841973858118</v>
+        <v>4.157244793888623</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.15231335840059</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,22 +582,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1550760929183213</v>
+        <v>0.1548951036472772</v>
       </c>
       <c r="D6">
-        <v>1.020071520852753</v>
+        <v>1.015573526346827</v>
       </c>
       <c r="E6">
-        <v>1.548716615168345</v>
+        <v>1.546659264935016</v>
       </c>
       <c r="F6">
-        <v>13.42166042963663</v>
+        <v>13.37704997601969</v>
       </c>
       <c r="G6">
-        <v>12.21814856264575</v>
+        <v>4.110039261344468</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.060137896436942</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,22 +623,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1676759711531446</v>
+        <v>0.1674518674550711</v>
       </c>
       <c r="D7">
-        <v>1.107123544427139</v>
+        <v>1.102035990585506</v>
       </c>
       <c r="E7">
-        <v>1.687777046215245</v>
+        <v>1.685180826014829</v>
       </c>
       <c r="F7">
-        <v>14.5264525985001</v>
+        <v>14.47561016454</v>
       </c>
       <c r="G7">
-        <v>13.22744105613447</v>
+        <v>4.449552930904531</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.723239903735958</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D8">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E8">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F8">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G8">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,22 +705,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D9">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E9">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F9">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G9">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D10">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E10">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F10">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G10">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,22 +787,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D11">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E11">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F11">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G11">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,22 +828,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D12">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E12">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F12">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G12">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,22 +869,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D13">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E13">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F13">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G13">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,22 +910,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D14">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E14">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F14">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G14">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,22 +951,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D15">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E15">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F15">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G15">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,22 +992,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D16">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E16">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F16">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G16">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,22 +1033,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D17">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E17">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F17">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G17">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,22 +1074,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D18">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E18">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F18">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G18">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,22 +1115,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D19">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E19">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F19">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G19">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,22 +1156,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D20">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E20">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F20">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G20">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D21">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E21">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F21">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G21">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,22 +1238,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D22">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E22">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F22">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G22">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,22 +1279,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D23">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E23">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F23">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G23">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,22 +1320,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D24">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E24">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F24">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G24">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,22 +1361,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2443674853611526</v>
+        <v>0.2435595093138261</v>
       </c>
       <c r="D25">
-        <v>1.65665709156346</v>
+        <v>1.645328574122573</v>
       </c>
       <c r="E25">
-        <v>2.602528838326535</v>
+        <v>2.591691174443781</v>
       </c>
       <c r="F25">
-        <v>21.35135745724546</v>
+        <v>21.23233988112855</v>
       </c>
       <c r="G25">
-        <v>19.47480057265574</v>
+        <v>6.539727270265388</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.8118461236763</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.03959496068862478</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.07053651956875484</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.06234926410079922</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.088061692814932</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.8315595499272774</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5467671062910568</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.6696592524811891</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.07171999720439004</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3.116674619043636</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6947123788483154</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.7722477405193153</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.0356664225981973</v>
+      </c>
+      <c r="D3">
+        <v>0.06466042821332252</v>
+      </c>
+      <c r="E3">
+        <v>0.05903874756950245</v>
+      </c>
+      <c r="F3">
+        <v>1.020688341493951</v>
+      </c>
+      <c r="G3">
+        <v>0.7711640575881944</v>
+      </c>
+      <c r="H3">
+        <v>0.5268206417733552</v>
+      </c>
+      <c r="I3">
+        <v>0.6222068651925809</v>
+      </c>
+      <c r="J3">
+        <v>0.06958134550701089</v>
+      </c>
+      <c r="K3">
+        <v>2.703343785642346</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.6058931682622699</v>
+      </c>
+      <c r="N3">
+        <v>0.8121057469760835</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.03324997007756991</v>
+      </c>
+      <c r="D4">
+        <v>0.06109636107149186</v>
+      </c>
+      <c r="E4">
+        <v>0.05708583316723725</v>
+      </c>
+      <c r="F4">
+        <v>0.9816529817723421</v>
+      </c>
+      <c r="G4">
+        <v>0.7361357249792064</v>
+      </c>
+      <c r="H4">
+        <v>0.5157446914733583</v>
+      </c>
+      <c r="I4">
+        <v>0.5945838855555152</v>
+      </c>
+      <c r="J4">
+        <v>0.06840247332203475</v>
+      </c>
+      <c r="K4">
+        <v>2.450964691716166</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.5518082090471879</v>
+      </c>
+      <c r="N4">
+        <v>0.8377887642920179</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.03226382242505821</v>
+      </c>
+      <c r="D5">
+        <v>0.05965427183621586</v>
+      </c>
+      <c r="E5">
+        <v>0.05630899185241844</v>
+      </c>
+      <c r="F5">
+        <v>0.9662933270296321</v>
+      </c>
+      <c r="G5">
+        <v>0.7223407043732948</v>
+      </c>
+      <c r="H5">
+        <v>0.5115085133763557</v>
+      </c>
+      <c r="I5">
+        <v>0.5836809945513224</v>
+      </c>
+      <c r="J5">
+        <v>0.06795405696969681</v>
+      </c>
+      <c r="K5">
+        <v>2.348411055035371</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.529866908226154</v>
+      </c>
+      <c r="N5">
+        <v>0.8485498263793296</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.03209997790200703</v>
+      </c>
+      <c r="D6">
+        <v>0.05941541535226236</v>
+      </c>
+      <c r="E6">
+        <v>0.05618111468874609</v>
+      </c>
+      <c r="F6">
+        <v>0.9637748480500647</v>
+      </c>
+      <c r="G6">
+        <v>0.7200779510104525</v>
+      </c>
+      <c r="H6">
+        <v>0.5108213692398351</v>
+      </c>
+      <c r="I6">
+        <v>0.5818911886666882</v>
+      </c>
+      <c r="J6">
+        <v>0.06788147948026335</v>
+      </c>
+      <c r="K6">
+        <v>2.331398082613191</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.5262291307241327</v>
+      </c>
+      <c r="N6">
+        <v>0.8503542519462748</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.03323667674134612</v>
+      </c>
+      <c r="D7">
+        <v>0.06107687179640209</v>
+      </c>
+      <c r="E7">
+        <v>0.05707528090094804</v>
+      </c>
+      <c r="F7">
+        <v>0.9814436686610577</v>
+      </c>
+      <c r="G7">
+        <v>0.7359477875459675</v>
+      </c>
+      <c r="H7">
+        <v>0.5156864597848596</v>
+      </c>
+      <c r="I7">
+        <v>0.5944354474281894</v>
+      </c>
+      <c r="J7">
+        <v>0.06839629859641505</v>
+      </c>
+      <c r="K7">
+        <v>2.449580509413551</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.551511919600685</v>
+      </c>
+      <c r="N7">
+        <v>0.837932708986699</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.03824108410523053</v>
+      </c>
+      <c r="D8">
+        <v>0.06850087632210489</v>
+      </c>
+      <c r="E8">
+        <v>0.06119058069042893</v>
+      </c>
+      <c r="F8">
+        <v>1.064323166307403</v>
+      </c>
+      <c r="G8">
+        <v>0.8102854921851872</v>
+      </c>
+      <c r="H8">
+        <v>0.5396358026692099</v>
+      </c>
+      <c r="I8">
+        <v>0.6529670221659032</v>
+      </c>
+      <c r="J8">
+        <v>0.0709536175814911</v>
+      </c>
+      <c r="K8">
+        <v>2.973827819348116</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.6639849894312988</v>
+      </c>
+      <c r="N8">
+        <v>0.7857338915869221</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.04803738474669217</v>
+      </c>
+      <c r="D9">
+        <v>0.08344402346691737</v>
+      </c>
+      <c r="E9">
+        <v>0.06994547314860355</v>
+      </c>
+      <c r="F9">
+        <v>1.247241247041671</v>
+      </c>
+      <c r="G9">
+        <v>0.974179263264304</v>
+      </c>
+      <c r="H9">
+        <v>0.596726874345336</v>
+      </c>
+      <c r="I9">
+        <v>0.7810510452764561</v>
+      </c>
+      <c r="J9">
+        <v>0.07712007641331553</v>
+      </c>
+      <c r="K9">
+        <v>4.016063162542139</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0.8888321307505649</v>
+      </c>
+      <c r="N9">
+        <v>0.6934185538841398</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.05525020332729014</v>
+      </c>
+      <c r="D10">
+        <v>0.09471340891300173</v>
+      </c>
+      <c r="E10">
+        <v>0.07687356188684902</v>
+      </c>
+      <c r="F10">
+        <v>1.396906993655918</v>
+      </c>
+      <c r="G10">
+        <v>1.108372129215724</v>
+      </c>
+      <c r="H10">
+        <v>0.6461009704486287</v>
+      </c>
+      <c r="I10">
+        <v>0.8852229797519655</v>
+      </c>
+      <c r="J10">
+        <v>0.0824822279977937</v>
+      </c>
+      <c r="K10">
+        <v>4.795063969085732</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.057731355264302</v>
+      </c>
+      <c r="N10">
+        <v>0.6323843646632454</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.05854123941993805</v>
+      </c>
+      <c r="D11">
+        <v>0.09991704522345657</v>
+      </c>
+      <c r="E11">
+        <v>0.08015209281801461</v>
+      </c>
+      <c r="F11">
+        <v>1.469006864097835</v>
+      </c>
+      <c r="G11">
+        <v>1.173081973600944</v>
+      </c>
+      <c r="H11">
+        <v>0.6704834926924832</v>
+      </c>
+      <c r="I11">
+        <v>0.9352790859750826</v>
+      </c>
+      <c r="J11">
+        <v>0.08513383132585517</v>
+      </c>
+      <c r="K11">
+        <v>5.153471461566767</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.135640147889859</v>
+      </c>
+      <c r="N11">
+        <v>0.6062555907335323</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.05978946028847787</v>
+      </c>
+      <c r="D12">
+        <v>0.1018998621050784</v>
+      </c>
+      <c r="E12">
+        <v>0.08141357131010096</v>
+      </c>
+      <c r="F12">
+        <v>1.496950608412504</v>
+      </c>
+      <c r="G12">
+        <v>1.198174466600534</v>
+      </c>
+      <c r="H12">
+        <v>0.6800212202111879</v>
+      </c>
+      <c r="I12">
+        <v>0.9546616531782206</v>
+      </c>
+      <c r="J12">
+        <v>0.08617135663588726</v>
+      </c>
+      <c r="K12">
+        <v>5.289875002616327</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.165321220155619</v>
+      </c>
+      <c r="N12">
+        <v>0.5966117162812949</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.05952053629508924</v>
+      </c>
+      <c r="D13">
+        <v>0.1014722587550381</v>
+      </c>
+      <c r="E13">
+        <v>0.08114097214604854</v>
+      </c>
+      <c r="F13">
+        <v>1.490902835118774</v>
+      </c>
+      <c r="G13">
+        <v>1.192743148201998</v>
+      </c>
+      <c r="H13">
+        <v>0.677953075345016</v>
+      </c>
+      <c r="I13">
+        <v>0.950467520698453</v>
+      </c>
+      <c r="J13">
+        <v>0.0859463718223239</v>
+      </c>
+      <c r="K13">
+        <v>5.260465979981859</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.158920515479053</v>
+      </c>
+      <c r="N13">
+        <v>0.5986772970634107</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.05864388832499401</v>
+      </c>
+      <c r="D14">
+        <v>0.1000799186030861</v>
+      </c>
+      <c r="E14">
+        <v>0.08025546478708634</v>
+      </c>
+      <c r="F14">
+        <v>1.471292579304432</v>
+      </c>
+      <c r="G14">
+        <v>1.175134186714018</v>
+      </c>
+      <c r="H14">
+        <v>0.6712618917023008</v>
+      </c>
+      <c r="I14">
+        <v>0.9368648703070193</v>
+      </c>
+      <c r="J14">
+        <v>0.08521850188749625</v>
+      </c>
+      <c r="K14">
+        <v>5.164679167415784</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.138078300419977</v>
+      </c>
+      <c r="N14">
+        <v>0.6054570700934505</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.05810719090200678</v>
+      </c>
+      <c r="D15">
+        <v>0.09922871167930936</v>
+      </c>
+      <c r="E15">
+        <v>0.07971572029278562</v>
+      </c>
+      <c r="F15">
+        <v>1.459366206685004</v>
+      </c>
+      <c r="G15">
+        <v>1.164426716634722</v>
+      </c>
+      <c r="H15">
+        <v>0.6672038981334083</v>
+      </c>
+      <c r="I15">
+        <v>0.9285898836375139</v>
+      </c>
+      <c r="J15">
+        <v>0.08477710302911845</v>
+      </c>
+      <c r="K15">
+        <v>5.106099041815014</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.125335865768186</v>
+      </c>
+      <c r="N15">
+        <v>0.6096429793212508</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.05503537168776518</v>
+      </c>
+      <c r="D16">
+        <v>0.09437499305017383</v>
+      </c>
+      <c r="E16">
+        <v>0.07666199960195641</v>
+      </c>
+      <c r="F16">
+        <v>1.392281215868167</v>
+      </c>
+      <c r="G16">
+        <v>1.104222045498375</v>
+      </c>
+      <c r="H16">
+        <v>0.6445485437677405</v>
+      </c>
+      <c r="I16">
+        <v>0.8820090299945633</v>
+      </c>
+      <c r="J16">
+        <v>0.08231345317149419</v>
+      </c>
+      <c r="K16">
+        <v>4.771730915567559</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.052663480818296</v>
+      </c>
+      <c r="N16">
+        <v>0.634126136479054</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.05315382241047217</v>
+      </c>
+      <c r="D17">
+        <v>0.0914179844101497</v>
+      </c>
+      <c r="E17">
+        <v>0.07482232308328562</v>
+      </c>
+      <c r="F17">
+        <v>1.352198819577808</v>
+      </c>
+      <c r="G17">
+        <v>1.06826894145108</v>
+      </c>
+      <c r="H17">
+        <v>0.6311617576983082</v>
+      </c>
+      <c r="I17">
+        <v>0.8541463790457797</v>
+      </c>
+      <c r="J17">
+        <v>0.0808584422253702</v>
+      </c>
+      <c r="K17">
+        <v>4.567710244399166</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.008373235415007</v>
+      </c>
+      <c r="N17">
+        <v>0.6495752211995587</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.05207249976754014</v>
+      </c>
+      <c r="D18">
+        <v>0.08972437227976826</v>
+      </c>
+      <c r="E18">
+        <v>0.07377602353169621</v>
+      </c>
+      <c r="F18">
+        <v>1.329518373105017</v>
+      </c>
+      <c r="G18">
+        <v>1.047930631856602</v>
+      </c>
+      <c r="H18">
+        <v>0.6236411039287617</v>
+      </c>
+      <c r="I18">
+        <v>0.8383687748902773</v>
+      </c>
+      <c r="J18">
+        <v>0.08004135683543012</v>
+      </c>
+      <c r="K18">
+        <v>4.450736194923479</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.982998341826594</v>
+      </c>
+      <c r="N18">
+        <v>0.6586141212256926</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.05170652005569565</v>
+      </c>
+      <c r="D19">
+        <v>0.08915214225505963</v>
+      </c>
+      <c r="E19">
+        <v>0.07342374691387477</v>
+      </c>
+      <c r="F19">
+        <v>1.321901535446997</v>
+      </c>
+      <c r="G19">
+        <v>1.041101213989464</v>
+      </c>
+      <c r="H19">
+        <v>0.6211246775724391</v>
+      </c>
+      <c r="I19">
+        <v>0.8330681175932781</v>
+      </c>
+      <c r="J19">
+        <v>0.07976802231836899</v>
+      </c>
+      <c r="K19">
+        <v>4.411191943404901</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0.9744232636915768</v>
+      </c>
+      <c r="N19">
+        <v>0.6617003710007943</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.05335402007754908</v>
+      </c>
+      <c r="D20">
+        <v>0.09173201132837505</v>
+      </c>
+      <c r="E20">
+        <v>0.07501692305419283</v>
+      </c>
+      <c r="F20">
+        <v>1.356426521026819</v>
+      </c>
+      <c r="G20">
+        <v>1.072060496117686</v>
+      </c>
+      <c r="H20">
+        <v>0.6325680745676294</v>
+      </c>
+      <c r="I20">
+        <v>0.8570864078005442</v>
+      </c>
+      <c r="J20">
+        <v>0.0810112614631322</v>
+      </c>
+      <c r="K20">
+        <v>4.589389255336584</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.013077523791857</v>
+      </c>
+      <c r="N20">
+        <v>0.6479146990174947</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.0589013227605335</v>
+      </c>
+      <c r="D21">
+        <v>0.1004885382046723</v>
+      </c>
+      <c r="E21">
+        <v>0.08051500331558614</v>
+      </c>
+      <c r="F21">
+        <v>1.477034651980546</v>
+      </c>
+      <c r="G21">
+        <v>1.180289883015092</v>
+      </c>
+      <c r="H21">
+        <v>0.6732187499137865</v>
+      </c>
+      <c r="I21">
+        <v>0.940848329634747</v>
+      </c>
+      <c r="J21">
+        <v>0.08543136359410397</v>
+      </c>
+      <c r="K21">
+        <v>5.192794694320753</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.144195111547546</v>
+      </c>
+      <c r="N21">
+        <v>0.6034587586713656</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.06253862303774582</v>
+      </c>
+      <c r="D22">
+        <v>0.1062838523601641</v>
+      </c>
+      <c r="E22">
+        <v>0.08422562776719644</v>
+      </c>
+      <c r="F22">
+        <v>1.559629651580067</v>
+      </c>
+      <c r="G22">
+        <v>1.254485662870735</v>
+      </c>
+      <c r="H22">
+        <v>0.701576783063075</v>
+      </c>
+      <c r="I22">
+        <v>0.9981061688365713</v>
+      </c>
+      <c r="J22">
+        <v>0.08851649047499421</v>
+      </c>
+      <c r="K22">
+        <v>5.591187178416078</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.230942479105309</v>
+      </c>
+      <c r="N22">
+        <v>0.5758725886129739</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.06059604954355535</v>
+      </c>
+      <c r="D23">
+        <v>0.1031837246639498</v>
+      </c>
+      <c r="E23">
+        <v>0.08223385471183775</v>
+      </c>
+      <c r="F23">
+        <v>1.515179561797424</v>
+      </c>
+      <c r="G23">
+        <v>1.214547468025359</v>
+      </c>
+      <c r="H23">
+        <v>0.6862677126497942</v>
+      </c>
+      <c r="I23">
+        <v>0.9673009477378258</v>
+      </c>
+      <c r="J23">
+        <v>0.08685091195032157</v>
+      </c>
+      <c r="K23">
+        <v>5.378152356357759</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.184538754356979</v>
+      </c>
+      <c r="N23">
+        <v>0.5904560795059624</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.05326350949190584</v>
+      </c>
+      <c r="D24">
+        <v>0.09159001987893589</v>
+      </c>
+      <c r="E24">
+        <v>0.07492890916732264</v>
+      </c>
+      <c r="F24">
+        <v>1.354514049848078</v>
+      </c>
+      <c r="G24">
+        <v>1.07034530592847</v>
+      </c>
+      <c r="H24">
+        <v>0.6319317338949162</v>
+      </c>
+      <c r="I24">
+        <v>0.8557564733842042</v>
+      </c>
+      <c r="J24">
+        <v>0.08094211161247955</v>
+      </c>
+      <c r="K24">
+        <v>4.579587184880268</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.010950442210692</v>
+      </c>
+      <c r="N24">
+        <v>0.6486649331664509</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.04538651817797046</v>
+      </c>
+      <c r="D25">
+        <v>0.07935480534860062</v>
+      </c>
+      <c r="E25">
+        <v>0.06749600483847473</v>
+      </c>
+      <c r="F25">
+        <v>1.195294289330349</v>
+      </c>
+      <c r="G25">
+        <v>0.9276331857810902</v>
+      </c>
+      <c r="H25">
+        <v>0.580074704436754</v>
+      </c>
+      <c r="I25">
+        <v>0.7447841241786577</v>
+      </c>
+      <c r="J25">
+        <v>0.07531584432060612</v>
+      </c>
+      <c r="K25">
+        <v>3.732138424112122</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0.8274389051088917</v>
+      </c>
+      <c r="N25">
+        <v>0.7172514581759017</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03959496068862478</v>
+        <v>0.02266265261650346</v>
       </c>
       <c r="D2">
-        <v>0.07053651956875484</v>
+        <v>0.1265126718081007</v>
       </c>
       <c r="E2">
-        <v>0.06234926410079922</v>
+        <v>0.1266161815444171</v>
       </c>
       <c r="F2">
-        <v>1.088061692814932</v>
+        <v>1.757255418350454</v>
       </c>
       <c r="G2">
-        <v>0.8315595499272774</v>
+        <v>1.137845425656764</v>
       </c>
       <c r="H2">
-        <v>0.5467671062910568</v>
+        <v>1.103468705906124</v>
       </c>
       <c r="I2">
-        <v>0.6696592524811891</v>
+        <v>0.9647071166073715</v>
       </c>
       <c r="J2">
-        <v>0.07171999720439004</v>
+        <v>0.1560161159846984</v>
       </c>
       <c r="K2">
-        <v>3.116674619043636</v>
+        <v>1.292274900074801</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6947123788483154</v>
+        <v>0.4261677922716416</v>
       </c>
       <c r="N2">
-        <v>0.7722477405193153</v>
+        <v>1.489690269959485</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0356664225981973</v>
+        <v>0.02131592053074627</v>
       </c>
       <c r="D3">
-        <v>0.06466042821332252</v>
+        <v>0.1253780723251268</v>
       </c>
       <c r="E3">
-        <v>0.05903874756950245</v>
+        <v>0.1264944989023018</v>
       </c>
       <c r="F3">
-        <v>1.020688341493951</v>
+        <v>1.754827232407379</v>
       </c>
       <c r="G3">
-        <v>0.7711640575881944</v>
+        <v>1.133310009983759</v>
       </c>
       <c r="H3">
-        <v>0.5268206417733552</v>
+        <v>1.107107687836915</v>
       </c>
       <c r="I3">
-        <v>0.6222068651925809</v>
+        <v>0.961188425605819</v>
       </c>
       <c r="J3">
-        <v>0.06958134550701089</v>
+        <v>0.1566015990387477</v>
       </c>
       <c r="K3">
-        <v>2.703343785642346</v>
+        <v>1.17583634719972</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6058931682622699</v>
+        <v>0.4029538030273159</v>
       </c>
       <c r="N3">
-        <v>0.8121057469760835</v>
+        <v>1.506163100992381</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03324997007756991</v>
+        <v>0.02048099662832925</v>
       </c>
       <c r="D4">
-        <v>0.06109636107149186</v>
+        <v>0.124715457766051</v>
       </c>
       <c r="E4">
-        <v>0.05708583316723725</v>
+        <v>0.1264692536645455</v>
       </c>
       <c r="F4">
-        <v>0.9816529817723421</v>
+        <v>1.75439569070889</v>
       </c>
       <c r="G4">
-        <v>0.7361357249792064</v>
+        <v>1.13134163428839</v>
       </c>
       <c r="H4">
-        <v>0.5157446914733583</v>
+        <v>1.109926329903615</v>
       </c>
       <c r="I4">
-        <v>0.5945838855555152</v>
+        <v>0.9596665047277213</v>
       </c>
       <c r="J4">
-        <v>0.06840247332203475</v>
+        <v>0.1570343233331108</v>
       </c>
       <c r="K4">
-        <v>2.450964691716166</v>
+        <v>1.104646113086687</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5518082090471879</v>
+        <v>0.3888669242011957</v>
       </c>
       <c r="N4">
-        <v>0.8377887642920179</v>
+        <v>1.516851226035978</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03226382242505821</v>
+        <v>0.02013875061139458</v>
       </c>
       <c r="D5">
-        <v>0.05965427183621586</v>
+        <v>0.1244540393270412</v>
       </c>
       <c r="E5">
-        <v>0.05630899185241844</v>
+        <v>0.1264714224757135</v>
       </c>
       <c r="F5">
-        <v>0.9662933270296321</v>
+        <v>1.7544859056364</v>
       </c>
       <c r="G5">
-        <v>0.7223407043732948</v>
+        <v>1.130744296534999</v>
       </c>
       <c r="H5">
-        <v>0.5115085133763557</v>
+        <v>1.111221771696663</v>
       </c>
       <c r="I5">
-        <v>0.5836809945513224</v>
+        <v>0.9592065998947987</v>
       </c>
       <c r="J5">
-        <v>0.06795405696969681</v>
+        <v>0.1572290740125375</v>
       </c>
       <c r="K5">
-        <v>2.348411055035371</v>
+        <v>1.075712745039056</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.529866908226154</v>
+        <v>0.3831685050675517</v>
       </c>
       <c r="N5">
-        <v>0.8485498263793296</v>
+        <v>1.521350995495613</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03209997790200703</v>
+        <v>0.02008179995893755</v>
       </c>
       <c r="D6">
-        <v>0.05941541535226236</v>
+        <v>0.124411151862823</v>
       </c>
       <c r="E6">
-        <v>0.05618111468874609</v>
+        <v>0.1264725354544716</v>
       </c>
       <c r="F6">
-        <v>0.9637748480500647</v>
+        <v>1.754516946647229</v>
       </c>
       <c r="G6">
-        <v>0.7200779510104525</v>
+        <v>1.130657463484326</v>
       </c>
       <c r="H6">
-        <v>0.5108213692398351</v>
+        <v>1.111445743557383</v>
       </c>
       <c r="I6">
-        <v>0.5818911886666882</v>
+        <v>0.9591399059438714</v>
       </c>
       <c r="J6">
-        <v>0.06788147948026335</v>
+        <v>0.1572625241554562</v>
       </c>
       <c r="K6">
-        <v>2.331398082613191</v>
+        <v>1.070913072933507</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5262291307241327</v>
+        <v>0.3822248356261113</v>
       </c>
       <c r="N6">
-        <v>0.8503542519462748</v>
+        <v>1.522106892554245</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03323667674134612</v>
+        <v>0.02047638909559879</v>
       </c>
       <c r="D7">
-        <v>0.06107687179640209</v>
+        <v>0.1247118972952492</v>
       </c>
       <c r="E7">
-        <v>0.05707528090094804</v>
+        <v>0.1264692324550367</v>
       </c>
       <c r="F7">
-        <v>0.9814436686610577</v>
+        <v>1.754395830488946</v>
       </c>
       <c r="G7">
-        <v>0.7359477875459675</v>
+        <v>1.13133274985033</v>
       </c>
       <c r="H7">
-        <v>0.5156864597848596</v>
+        <v>1.109943206347779</v>
       </c>
       <c r="I7">
-        <v>0.5944354474281894</v>
+        <v>0.9596596536591377</v>
       </c>
       <c r="J7">
-        <v>0.06839629859641505</v>
+        <v>0.1570368752640086</v>
       </c>
       <c r="K7">
-        <v>2.449580509413551</v>
+        <v>1.104255593650436</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.551511919600685</v>
+        <v>0.3887899026009762</v>
       </c>
       <c r="N7">
-        <v>0.837932708986699</v>
+        <v>1.516911327351554</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03824108410523053</v>
+        <v>0.02219997069365576</v>
       </c>
       <c r="D8">
-        <v>0.06850087632210489</v>
+        <v>0.1261144240386187</v>
       </c>
       <c r="E8">
-        <v>0.06119058069042893</v>
+        <v>0.12656396818549</v>
       </c>
       <c r="F8">
-        <v>1.064323166307403</v>
+        <v>1.756198109581007</v>
       </c>
       <c r="G8">
-        <v>0.8102854921851872</v>
+        <v>1.136111869142937</v>
       </c>
       <c r="H8">
-        <v>0.5396358026692099</v>
+        <v>1.104602092758881</v>
       </c>
       <c r="I8">
-        <v>0.6529670221659032</v>
+        <v>0.9633611619781988</v>
       </c>
       <c r="J8">
-        <v>0.0709536175814911</v>
+        <v>0.1562027881143351</v>
       </c>
       <c r="K8">
-        <v>2.973827819348116</v>
+        <v>1.25206440053455</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6639849894312988</v>
+        <v>0.4181291440474979</v>
       </c>
       <c r="N8">
-        <v>0.7857338915869221</v>
+        <v>1.495251022444766</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04803738474669217</v>
+        <v>0.02551593656438911</v>
       </c>
       <c r="D9">
-        <v>0.08344402346691737</v>
+        <v>0.1291331042586279</v>
       </c>
       <c r="E9">
-        <v>0.06994547314860355</v>
+        <v>0.1271416386052771</v>
       </c>
       <c r="F9">
-        <v>1.247241247041671</v>
+        <v>1.768155148164752</v>
       </c>
       <c r="G9">
-        <v>0.974179263264304</v>
+        <v>1.1519860607699</v>
       </c>
       <c r="H9">
-        <v>0.596726874345336</v>
+        <v>1.098769932841861</v>
       </c>
       <c r="I9">
-        <v>0.7810510452764561</v>
+        <v>0.9757012341211464</v>
       </c>
       <c r="J9">
-        <v>0.07712007641331553</v>
+        <v>0.1551485148860827</v>
       </c>
       <c r="K9">
-        <v>4.016063162542139</v>
+        <v>1.5443007327126</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8888321307505649</v>
+        <v>0.476979624815101</v>
       </c>
       <c r="N9">
-        <v>0.6934185538841398</v>
+        <v>1.457327289102981</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05525020332729014</v>
+        <v>0.02791299793319979</v>
       </c>
       <c r="D10">
-        <v>0.09471340891300173</v>
+        <v>0.1315125375551247</v>
       </c>
       <c r="E10">
-        <v>0.07687356188684902</v>
+        <v>0.1278043434882328</v>
       </c>
       <c r="F10">
-        <v>1.396906993655918</v>
+        <v>1.782102521822196</v>
       </c>
       <c r="G10">
-        <v>1.108372129215724</v>
+        <v>1.16765033263799</v>
       </c>
       <c r="H10">
-        <v>0.6461009704486287</v>
+        <v>1.097324064215513</v>
       </c>
       <c r="I10">
-        <v>0.8852229797519655</v>
+        <v>0.9878882777695281</v>
       </c>
       <c r="J10">
-        <v>0.0824822279977937</v>
+        <v>0.154728915672095</v>
       </c>
       <c r="K10">
-        <v>4.795063969085732</v>
+        <v>1.760449981348643</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.057731355264302</v>
+        <v>0.5210169643015519</v>
       </c>
       <c r="N10">
-        <v>0.6323843646632454</v>
+        <v>1.432238906276865</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05854123941993805</v>
+        <v>0.02899495225061344</v>
       </c>
       <c r="D11">
-        <v>0.09991704522345657</v>
+        <v>0.1326297023171108</v>
       </c>
       <c r="E11">
-        <v>0.08015209281801461</v>
+        <v>0.1281574535743317</v>
       </c>
       <c r="F11">
-        <v>1.469006864097835</v>
+        <v>1.789574841388784</v>
       </c>
       <c r="G11">
-        <v>1.173081973600944</v>
+        <v>1.175653620789404</v>
       </c>
       <c r="H11">
-        <v>0.6704834926924832</v>
+        <v>1.097284904028811</v>
       </c>
       <c r="I11">
-        <v>0.9352790859750826</v>
+        <v>0.9941152880643784</v>
       </c>
       <c r="J11">
-        <v>0.08513383132585517</v>
+        <v>0.1546152451012617</v>
       </c>
       <c r="K11">
-        <v>5.153471461566767</v>
+        <v>1.859094704876838</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.135640147889859</v>
+        <v>0.5412241779775115</v>
       </c>
       <c r="N11">
-        <v>0.6062555907335323</v>
+        <v>1.421427855011565</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05978946028847787</v>
+        <v>0.02940343357194308</v>
       </c>
       <c r="D12">
-        <v>0.1018998621050784</v>
+        <v>0.133057701241647</v>
       </c>
       <c r="E12">
-        <v>0.08141357131010096</v>
+        <v>0.1282985802906644</v>
       </c>
       <c r="F12">
-        <v>1.496950608412504</v>
+        <v>1.792567002989472</v>
       </c>
       <c r="G12">
-        <v>1.198174466600534</v>
+        <v>1.178811060656074</v>
       </c>
       <c r="H12">
-        <v>0.6800212202111879</v>
+        <v>1.097359180564268</v>
       </c>
       <c r="I12">
-        <v>0.9546616531782206</v>
+        <v>0.9965718883977246</v>
       </c>
       <c r="J12">
-        <v>0.08617135663588726</v>
+        <v>0.1545833125015292</v>
       </c>
       <c r="K12">
-        <v>5.289875002616327</v>
+        <v>1.896493977349166</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.165321220155619</v>
+        <v>0.5489010792164351</v>
       </c>
       <c r="N12">
-        <v>0.5966117162812949</v>
+        <v>1.41742056051153</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05952053629508924</v>
+        <v>0.02931551475958827</v>
       </c>
       <c r="D13">
-        <v>0.1014722587550381</v>
+        <v>0.1329653044314725</v>
       </c>
       <c r="E13">
-        <v>0.08114097214604854</v>
+        <v>0.1282678567238307</v>
       </c>
       <c r="F13">
-        <v>1.490902835118774</v>
+        <v>1.79191535114326</v>
       </c>
       <c r="G13">
-        <v>1.192743148201998</v>
+        <v>1.178125402163801</v>
       </c>
       <c r="H13">
-        <v>0.677953075345016</v>
+        <v>1.097339218283707</v>
       </c>
       <c r="I13">
-        <v>0.950467520698453</v>
+        <v>0.9960384262984121</v>
       </c>
       <c r="J13">
-        <v>0.0859463718223239</v>
+        <v>0.1545896953931774</v>
       </c>
       <c r="K13">
-        <v>5.260465979981859</v>
+        <v>1.888437404213732</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.158920515479053</v>
+        <v>0.5472466185129292</v>
       </c>
       <c r="N13">
-        <v>0.5986772970634107</v>
+        <v>1.418279749457227</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05864388832499401</v>
+        <v>0.02902858299982825</v>
       </c>
       <c r="D14">
-        <v>0.1000799186030861</v>
+        <v>0.1326648150337846</v>
       </c>
       <c r="E14">
-        <v>0.08025546478708634</v>
+        <v>0.1281689156973371</v>
       </c>
       <c r="F14">
-        <v>1.471292579304432</v>
+        <v>1.789817748091153</v>
       </c>
       <c r="G14">
-        <v>1.175134186714018</v>
+        <v>1.175910841309189</v>
       </c>
       <c r="H14">
-        <v>0.6712618917023008</v>
+        <v>1.097289228096287</v>
       </c>
       <c r="I14">
-        <v>0.9368648703070193</v>
+        <v>0.9943154166577273</v>
       </c>
       <c r="J14">
-        <v>0.08521850188749625</v>
+        <v>0.1546123952298757</v>
       </c>
       <c r="K14">
-        <v>5.164679167415784</v>
+        <v>1.862170676113067</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.138078300419977</v>
+        <v>0.5418552640756218</v>
       </c>
       <c r="N14">
-        <v>0.6054570700934505</v>
+        <v>1.421096436082784</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05810719090200678</v>
+        <v>0.02885266831181355</v>
       </c>
       <c r="D15">
-        <v>0.09922871167930936</v>
+        <v>0.1324814003137433</v>
       </c>
       <c r="E15">
-        <v>0.07971572029278562</v>
+        <v>0.1281092762420108</v>
       </c>
       <c r="F15">
-        <v>1.459366206685004</v>
+        <v>1.788554087524815</v>
       </c>
       <c r="G15">
-        <v>1.164426716634722</v>
+        <v>1.17457088508354</v>
       </c>
       <c r="H15">
-        <v>0.6672038981334083</v>
+        <v>1.097270216502665</v>
       </c>
       <c r="I15">
-        <v>0.9285898836375139</v>
+        <v>0.9932728700061233</v>
       </c>
       <c r="J15">
-        <v>0.08477710302911845</v>
+        <v>0.1546277469346862</v>
       </c>
       <c r="K15">
-        <v>5.106099041815014</v>
+        <v>1.846087333466755</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.125335865768186</v>
+        <v>0.5385561361128453</v>
       </c>
       <c r="N15">
-        <v>0.6096429793212508</v>
+        <v>1.422833020434567</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05503537168776518</v>
+        <v>0.02784211801053971</v>
       </c>
       <c r="D16">
-        <v>0.09437499305017383</v>
+        <v>0.1314402236786805</v>
       </c>
       <c r="E16">
-        <v>0.07666199960195641</v>
+        <v>0.1277823048443274</v>
       </c>
       <c r="F16">
-        <v>1.392281215868167</v>
+        <v>1.781636913150749</v>
       </c>
       <c r="G16">
-        <v>1.104222045498375</v>
+        <v>1.167145006675483</v>
       </c>
       <c r="H16">
-        <v>0.6445485437677405</v>
+        <v>1.097339083946878</v>
       </c>
       <c r="I16">
-        <v>0.8820090299945633</v>
+        <v>0.987495102258066</v>
       </c>
       <c r="J16">
-        <v>0.08231345317149419</v>
+        <v>0.1547378987394268</v>
       </c>
       <c r="K16">
-        <v>4.771730915567559</v>
+        <v>1.754009618721511</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.052663480818296</v>
+        <v>0.5196998667482973</v>
       </c>
       <c r="N16">
-        <v>0.634126136479054</v>
+        <v>1.432957550010386</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05315382241047217</v>
+        <v>0.02721999757883964</v>
       </c>
       <c r="D17">
-        <v>0.0914179844101497</v>
+        <v>0.1308103641344545</v>
       </c>
       <c r="E17">
-        <v>0.07482232308328562</v>
+        <v>0.1275949349344856</v>
       </c>
       <c r="F17">
-        <v>1.352198819577808</v>
+        <v>1.777682544369938</v>
       </c>
       <c r="G17">
-        <v>1.06826894145108</v>
+        <v>1.162814639980809</v>
       </c>
       <c r="H17">
-        <v>0.6311617576983082</v>
+        <v>1.097539873295716</v>
       </c>
       <c r="I17">
-        <v>0.8541463790457797</v>
+        <v>0.9841258212111015</v>
       </c>
       <c r="J17">
-        <v>0.0808584422253702</v>
+        <v>0.1548252547314632</v>
       </c>
       <c r="K17">
-        <v>4.567710244399166</v>
+        <v>1.697603504639631</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.008373235415007</v>
+        <v>0.5081766748842043</v>
       </c>
       <c r="N17">
-        <v>0.6495752211995587</v>
+        <v>1.439322806689333</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05207249976754014</v>
+        <v>0.02686137279351186</v>
       </c>
       <c r="D18">
-        <v>0.08972437227976826</v>
+        <v>0.1304513588972682</v>
       </c>
       <c r="E18">
-        <v>0.07377602353169621</v>
+        <v>0.1274920263935044</v>
       </c>
       <c r="F18">
-        <v>1.329518373105017</v>
+        <v>1.775514205323901</v>
       </c>
       <c r="G18">
-        <v>1.047930631856602</v>
+        <v>1.16040649023428</v>
       </c>
       <c r="H18">
-        <v>0.6236411039287617</v>
+        <v>1.097713575553968</v>
       </c>
       <c r="I18">
-        <v>0.8383687748902773</v>
+        <v>0.9822521723540447</v>
       </c>
       <c r="J18">
-        <v>0.08004135683543012</v>
+        <v>0.1548827661023182</v>
       </c>
       <c r="K18">
-        <v>4.450736194923479</v>
+        <v>1.665190127671053</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.982998341826594</v>
+        <v>0.5015652682322411</v>
       </c>
       <c r="N18">
-        <v>0.6586141212256926</v>
+        <v>1.443040571094826</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05170652005569565</v>
+        <v>0.02673981198005748</v>
       </c>
       <c r="D19">
-        <v>0.08915214225505963</v>
+        <v>0.1303303694308369</v>
       </c>
       <c r="E19">
-        <v>0.07342374691387477</v>
+        <v>0.1274580187722378</v>
       </c>
       <c r="F19">
-        <v>1.321901535446997</v>
+        <v>1.77479825491038</v>
       </c>
       <c r="G19">
-        <v>1.041101213989464</v>
+        <v>1.159605294686472</v>
       </c>
       <c r="H19">
-        <v>0.6211246775724391</v>
+        <v>1.097782381683913</v>
       </c>
       <c r="I19">
-        <v>0.8330681175932781</v>
+        <v>0.9816288154895076</v>
       </c>
       <c r="J19">
-        <v>0.07976802231836899</v>
+        <v>0.1549034862048089</v>
       </c>
       <c r="K19">
-        <v>4.411191943404901</v>
+        <v>1.65422068526243</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9744232636915768</v>
+        <v>0.4993295876365949</v>
       </c>
       <c r="N19">
-        <v>0.6617003710007943</v>
+        <v>1.444309067373347</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05335402007754908</v>
+        <v>0.02728630599111881</v>
       </c>
       <c r="D20">
-        <v>0.09173201132837505</v>
+        <v>0.130877075302962</v>
       </c>
       <c r="E20">
-        <v>0.07501692305419283</v>
+        <v>0.1276143777218905</v>
       </c>
       <c r="F20">
-        <v>1.356426521026819</v>
+        <v>1.778092508795538</v>
       </c>
       <c r="G20">
-        <v>1.072060496117686</v>
+        <v>1.16326706578478</v>
       </c>
       <c r="H20">
-        <v>0.6325680745676294</v>
+        <v>1.097512472917529</v>
       </c>
       <c r="I20">
-        <v>0.8570864078005442</v>
+        <v>0.9844778324865047</v>
       </c>
       <c r="J20">
-        <v>0.0810112614631322</v>
+        <v>0.1548152034103651</v>
       </c>
       <c r="K20">
-        <v>4.589389255336584</v>
+        <v>1.703604941456717</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.013077523791857</v>
+        <v>0.5094016395780443</v>
       </c>
       <c r="N20">
-        <v>0.6479146990174947</v>
+        <v>1.438639351949526</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0589013227605335</v>
+        <v>0.02911289532325156</v>
       </c>
       <c r="D21">
-        <v>0.1004885382046723</v>
+        <v>0.1327529419833269</v>
       </c>
       <c r="E21">
-        <v>0.08051500331558614</v>
+        <v>0.1281977760414748</v>
       </c>
       <c r="F21">
-        <v>1.477034651980546</v>
+        <v>1.790429449934251</v>
       </c>
       <c r="G21">
-        <v>1.180289883015092</v>
+        <v>1.176557866420751</v>
       </c>
       <c r="H21">
-        <v>0.6732187499137865</v>
+        <v>1.097301491872827</v>
       </c>
       <c r="I21">
-        <v>0.940848329634747</v>
+        <v>0.9948188285406019</v>
       </c>
       <c r="J21">
-        <v>0.08543136359410397</v>
+        <v>0.1546054260833216</v>
       </c>
       <c r="K21">
-        <v>5.192794694320753</v>
+        <v>1.869884646648416</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.144195111547546</v>
+        <v>0.543438162327945</v>
       </c>
       <c r="N21">
-        <v>0.6034587586713656</v>
+        <v>1.420266755534946</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06253862303774582</v>
+        <v>0.03029949469727455</v>
       </c>
       <c r="D22">
-        <v>0.1062838523601641</v>
+        <v>0.1340077782738405</v>
       </c>
       <c r="E22">
-        <v>0.08422562776719644</v>
+        <v>0.128622254384716</v>
       </c>
       <c r="F22">
-        <v>1.559629651580067</v>
+        <v>1.799440049772087</v>
       </c>
       <c r="G22">
-        <v>1.254485662870735</v>
+        <v>1.185983346889827</v>
       </c>
       <c r="H22">
-        <v>0.701576783063075</v>
+        <v>1.097683053205515</v>
       </c>
       <c r="I22">
-        <v>0.9981061688365713</v>
+        <v>1.002151949853342</v>
       </c>
       <c r="J22">
-        <v>0.08851649047499421</v>
+        <v>0.1545330982544186</v>
       </c>
       <c r="K22">
-        <v>5.591187178416078</v>
+        <v>1.978817891913195</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.230942479105309</v>
+        <v>0.5658278504632221</v>
       </c>
       <c r="N22">
-        <v>0.5758725886129739</v>
+        <v>1.408764107929649</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06059604954355535</v>
+        <v>0.02966684532729857</v>
       </c>
       <c r="D23">
-        <v>0.1031837246639498</v>
+        <v>0.1333354232810322</v>
       </c>
       <c r="E23">
-        <v>0.08223385471183775</v>
+        <v>0.1283917548139044</v>
       </c>
       <c r="F23">
-        <v>1.515179561797424</v>
+        <v>1.794544072401564</v>
       </c>
       <c r="G23">
-        <v>1.214547468025359</v>
+        <v>1.180884963750259</v>
       </c>
       <c r="H23">
-        <v>0.6862677126497942</v>
+        <v>1.097431825098994</v>
       </c>
       <c r="I23">
-        <v>0.9673009477378258</v>
+        <v>0.9981854276658595</v>
       </c>
       <c r="J23">
-        <v>0.08685091195032157</v>
+        <v>0.1545657709121073</v>
       </c>
       <c r="K23">
-        <v>5.378152356357759</v>
+        <v>1.920654713407259</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.184538754356979</v>
+        <v>0.5538648678195557</v>
       </c>
       <c r="N23">
-        <v>0.5904560795059624</v>
+        <v>1.414857060153878</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05326350949190584</v>
+        <v>0.02725633094537017</v>
       </c>
       <c r="D24">
-        <v>0.09159001987893589</v>
+        <v>0.1308469054954102</v>
       </c>
       <c r="E24">
-        <v>0.07492890916732264</v>
+        <v>0.1276055726451872</v>
       </c>
       <c r="F24">
-        <v>1.354514049848078</v>
+        <v>1.777906836581863</v>
       </c>
       <c r="G24">
-        <v>1.07034530592847</v>
+        <v>1.163062270449615</v>
       </c>
       <c r="H24">
-        <v>0.6319317338949162</v>
+        <v>1.097524679136157</v>
       </c>
       <c r="I24">
-        <v>0.8557564733842042</v>
+        <v>0.984318490735717</v>
       </c>
       <c r="J24">
-        <v>0.08094211161247955</v>
+        <v>0.1548197249078385</v>
       </c>
       <c r="K24">
-        <v>4.579587184880268</v>
+        <v>1.700891644301521</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.010950442210692</v>
+        <v>0.508847791192153</v>
       </c>
       <c r="N24">
-        <v>0.6486649331664509</v>
+        <v>1.438948160252416</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04538651817797046</v>
+        <v>0.02462574747838886</v>
       </c>
       <c r="D25">
-        <v>0.07935480534860062</v>
+        <v>0.1282879497652658</v>
       </c>
       <c r="E25">
-        <v>0.06749600483847473</v>
+        <v>0.1269434731496553</v>
       </c>
       <c r="F25">
-        <v>1.195294289330349</v>
+        <v>1.764015876577687</v>
       </c>
       <c r="G25">
-        <v>0.9276331857810902</v>
+        <v>1.146991683314042</v>
       </c>
       <c r="H25">
-        <v>0.580074704436754</v>
+        <v>1.099849803755262</v>
       </c>
       <c r="I25">
-        <v>0.7447841241786577</v>
+        <v>0.9718165438495205</v>
       </c>
       <c r="J25">
-        <v>0.07531584432060612</v>
+        <v>0.1553714274959148</v>
       </c>
       <c r="K25">
-        <v>3.732138424112122</v>
+        <v>1.464988934601934</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8274389051088917</v>
+        <v>0.4609183635856837</v>
       </c>
       <c r="N25">
-        <v>0.7172514581759017</v>
+        <v>1.467099449726749</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02266265261650346</v>
+        <v>0.03959496068862478</v>
       </c>
       <c r="D2">
-        <v>0.1265126718081007</v>
+        <v>0.07053651956881168</v>
       </c>
       <c r="E2">
-        <v>0.1266161815444171</v>
+        <v>0.06234926410081698</v>
       </c>
       <c r="F2">
-        <v>1.757255418350454</v>
+        <v>1.088061692814932</v>
       </c>
       <c r="G2">
-        <v>1.137845425656764</v>
+        <v>0.8315595499273343</v>
       </c>
       <c r="H2">
-        <v>1.103468705906124</v>
+        <v>0.5467671062910426</v>
       </c>
       <c r="I2">
-        <v>0.9647071166073715</v>
+        <v>0.669659252481182</v>
       </c>
       <c r="J2">
-        <v>0.1560161159846984</v>
+        <v>0.07171999720445044</v>
       </c>
       <c r="K2">
-        <v>1.292274900074801</v>
+        <v>3.116674619043579</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4261677922716416</v>
+        <v>0.6947123788483225</v>
       </c>
       <c r="N2">
-        <v>1.489690269959485</v>
+        <v>0.7722477405193118</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02131592053074627</v>
+        <v>0.0356664225983252</v>
       </c>
       <c r="D3">
-        <v>0.1253780723251268</v>
+        <v>0.06466042821338647</v>
       </c>
       <c r="E3">
-        <v>0.1264944989023018</v>
+        <v>0.05903874756950245</v>
       </c>
       <c r="F3">
-        <v>1.754827232407379</v>
+        <v>1.020688341493951</v>
       </c>
       <c r="G3">
-        <v>1.133310009983759</v>
+        <v>0.7711640575882512</v>
       </c>
       <c r="H3">
-        <v>1.107107687836915</v>
+        <v>0.5268206417734689</v>
       </c>
       <c r="I3">
-        <v>0.961188425605819</v>
+        <v>0.6222068651925881</v>
       </c>
       <c r="J3">
-        <v>0.1566015990387477</v>
+        <v>0.06958134550706063</v>
       </c>
       <c r="K3">
-        <v>1.17583634719972</v>
+        <v>2.703343785642232</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4029538030273159</v>
+        <v>0.605893168262277</v>
       </c>
       <c r="N3">
-        <v>1.506163100992381</v>
+        <v>0.8121057469760835</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02048099662832925</v>
+        <v>0.03324997007744912</v>
       </c>
       <c r="D4">
-        <v>0.124715457766051</v>
+        <v>0.06109636107149186</v>
       </c>
       <c r="E4">
-        <v>0.1264692536645455</v>
+        <v>0.0570858331672337</v>
       </c>
       <c r="F4">
-        <v>1.75439569070889</v>
+        <v>0.9816529817722852</v>
       </c>
       <c r="G4">
-        <v>1.13134163428839</v>
+        <v>0.7361357249793059</v>
       </c>
       <c r="H4">
-        <v>1.109926329903615</v>
+        <v>0.5157446914734578</v>
       </c>
       <c r="I4">
-        <v>0.9596665047277213</v>
+        <v>0.5945838855555223</v>
       </c>
       <c r="J4">
-        <v>0.1570343233331108</v>
+        <v>0.06840247332207028</v>
       </c>
       <c r="K4">
-        <v>1.104646113086687</v>
+        <v>2.450964691716081</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3888669242011957</v>
+        <v>0.5518082090471736</v>
       </c>
       <c r="N4">
-        <v>1.516851226035978</v>
+        <v>0.8377887642919326</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02013875061139458</v>
+        <v>0.03226382242482373</v>
       </c>
       <c r="D5">
-        <v>0.1244540393270412</v>
+        <v>0.05965427183621586</v>
       </c>
       <c r="E5">
-        <v>0.1264714224757135</v>
+        <v>0.05630899185241844</v>
       </c>
       <c r="F5">
-        <v>1.7544859056364</v>
+        <v>0.9662933270296463</v>
       </c>
       <c r="G5">
-        <v>1.130744296534999</v>
+        <v>0.72234070437338</v>
       </c>
       <c r="H5">
-        <v>1.111221771696663</v>
+        <v>0.5115085133763557</v>
       </c>
       <c r="I5">
-        <v>0.9592065998947987</v>
+        <v>0.5836809945513437</v>
       </c>
       <c r="J5">
-        <v>0.1572290740125375</v>
+        <v>0.06795405696969326</v>
       </c>
       <c r="K5">
-        <v>1.075712745039056</v>
+        <v>2.348411055035427</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3831685050675517</v>
+        <v>0.529866908226154</v>
       </c>
       <c r="N5">
-        <v>1.521350995495613</v>
+        <v>0.8485498263792728</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02008179995893755</v>
+        <v>0.03209997790224151</v>
       </c>
       <c r="D6">
-        <v>0.124411151862823</v>
+        <v>0.05941541535219841</v>
       </c>
       <c r="E6">
-        <v>0.1264725354544716</v>
+        <v>0.05618111468875853</v>
       </c>
       <c r="F6">
-        <v>1.754516946647229</v>
+        <v>0.9637748480500647</v>
       </c>
       <c r="G6">
-        <v>1.130657463484326</v>
+        <v>0.7200779510104809</v>
       </c>
       <c r="H6">
-        <v>1.111445743557383</v>
+        <v>0.5108213692398351</v>
       </c>
       <c r="I6">
-        <v>0.9591399059438714</v>
+        <v>0.5818911886666882</v>
       </c>
       <c r="J6">
-        <v>0.1572625241554562</v>
+        <v>0.06788147948029888</v>
       </c>
       <c r="K6">
-        <v>1.070913072933507</v>
+        <v>2.331398082613362</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3822248356261113</v>
+        <v>0.5262291307241327</v>
       </c>
       <c r="N6">
-        <v>1.522106892554245</v>
+        <v>0.8503542519462144</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02047638909559879</v>
+        <v>0.03323667674135322</v>
       </c>
       <c r="D7">
-        <v>0.1247118972952492</v>
+        <v>0.06107687179652999</v>
       </c>
       <c r="E7">
-        <v>0.1264692324550367</v>
+        <v>0.05707528090094982</v>
       </c>
       <c r="F7">
-        <v>1.754395830488946</v>
+        <v>0.9814436686610577</v>
       </c>
       <c r="G7">
-        <v>1.13133274985033</v>
+        <v>0.7359477875460243</v>
       </c>
       <c r="H7">
-        <v>1.109943206347779</v>
+        <v>0.5156864597848596</v>
       </c>
       <c r="I7">
-        <v>0.9596596536591377</v>
+        <v>0.5944354474282108</v>
       </c>
       <c r="J7">
-        <v>0.1570368752640086</v>
+        <v>0.0683962985964115</v>
       </c>
       <c r="K7">
-        <v>1.104255593650436</v>
+        <v>2.449580509413579</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3887899026009762</v>
+        <v>0.5515119196007063</v>
       </c>
       <c r="N7">
-        <v>1.516911327351554</v>
+        <v>0.8379327089866422</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02219997069365576</v>
+        <v>0.03824108410536553</v>
       </c>
       <c r="D8">
-        <v>0.1261144240386187</v>
+        <v>0.06850087632187041</v>
       </c>
       <c r="E8">
-        <v>0.12656396818549</v>
+        <v>0.06119058069041472</v>
       </c>
       <c r="F8">
-        <v>1.756198109581007</v>
+        <v>1.064323166307403</v>
       </c>
       <c r="G8">
-        <v>1.136111869142937</v>
+        <v>0.8102854921851446</v>
       </c>
       <c r="H8">
-        <v>1.104602092758881</v>
+        <v>0.5396358026693377</v>
       </c>
       <c r="I8">
-        <v>0.9633611619781988</v>
+        <v>0.6529670221659103</v>
       </c>
       <c r="J8">
-        <v>0.1562027881143351</v>
+        <v>0.07095361758146623</v>
       </c>
       <c r="K8">
-        <v>1.25206440053455</v>
+        <v>2.973827819348145</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4181291440474979</v>
+        <v>0.6639849894312917</v>
       </c>
       <c r="N8">
-        <v>1.495251022444766</v>
+        <v>0.7857338915869398</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02551593656438911</v>
+        <v>0.04803738474659269</v>
       </c>
       <c r="D9">
-        <v>0.1291331042586279</v>
+        <v>0.08344402346691027</v>
       </c>
       <c r="E9">
-        <v>0.1271416386052771</v>
+        <v>0.06994547314860711</v>
       </c>
       <c r="F9">
-        <v>1.768155148164752</v>
+        <v>1.247241247041671</v>
       </c>
       <c r="G9">
-        <v>1.1519860607699</v>
+        <v>0.9741792632642614</v>
       </c>
       <c r="H9">
-        <v>1.098769932841861</v>
+        <v>0.5967268743454355</v>
       </c>
       <c r="I9">
-        <v>0.9757012341211464</v>
+        <v>0.7810510452764561</v>
       </c>
       <c r="J9">
-        <v>0.1551485148860827</v>
+        <v>0.07712007641333685</v>
       </c>
       <c r="K9">
-        <v>1.5443007327126</v>
+        <v>4.016063162541911</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.476979624815101</v>
+        <v>0.8888321307505578</v>
       </c>
       <c r="N9">
-        <v>1.457327289102981</v>
+        <v>0.693418553884193</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02791299793319979</v>
+        <v>0.05525020332709829</v>
       </c>
       <c r="D10">
-        <v>0.1315125375551247</v>
+        <v>0.09471340891292357</v>
       </c>
       <c r="E10">
-        <v>0.1278043434882328</v>
+        <v>0.07687356188683481</v>
       </c>
       <c r="F10">
-        <v>1.782102521822196</v>
+        <v>1.396906993655932</v>
       </c>
       <c r="G10">
-        <v>1.16765033263799</v>
+        <v>1.108372129215752</v>
       </c>
       <c r="H10">
-        <v>1.097324064215513</v>
+        <v>0.6461009704486287</v>
       </c>
       <c r="I10">
-        <v>0.9878882777695281</v>
+        <v>0.8852229797519726</v>
       </c>
       <c r="J10">
-        <v>0.154728915672095</v>
+        <v>0.08248222799770133</v>
       </c>
       <c r="K10">
-        <v>1.760449981348643</v>
+        <v>4.795063969085788</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5210169643015519</v>
+        <v>1.057731355264295</v>
       </c>
       <c r="N10">
-        <v>1.432238906276865</v>
+        <v>0.6323843646633023</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02899495225061344</v>
+        <v>0.05854123941983858</v>
       </c>
       <c r="D11">
-        <v>0.1326297023171108</v>
+        <v>0.09991704522357736</v>
       </c>
       <c r="E11">
-        <v>0.1281574535743317</v>
+        <v>0.08015209281803237</v>
       </c>
       <c r="F11">
-        <v>1.789574841388784</v>
+        <v>1.46900686409785</v>
       </c>
       <c r="G11">
-        <v>1.175653620789404</v>
+        <v>1.173081973600944</v>
       </c>
       <c r="H11">
-        <v>1.097284904028811</v>
+        <v>0.6704834926925969</v>
       </c>
       <c r="I11">
-        <v>0.9941152880643784</v>
+        <v>0.9352790859750826</v>
       </c>
       <c r="J11">
-        <v>0.1546152451012617</v>
+        <v>0.08513383132581964</v>
       </c>
       <c r="K11">
-        <v>1.859094704876838</v>
+        <v>5.153471461566824</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5412241779775115</v>
+        <v>1.135640147889887</v>
       </c>
       <c r="N11">
-        <v>1.421427855011565</v>
+        <v>0.6062555907336034</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02940343357194308</v>
+        <v>0.05978946028858445</v>
       </c>
       <c r="D12">
-        <v>0.133057701241647</v>
+        <v>0.1018998621049647</v>
       </c>
       <c r="E12">
-        <v>0.1282985802906644</v>
+        <v>0.08141357131010096</v>
       </c>
       <c r="F12">
-        <v>1.792567002989472</v>
+        <v>1.496950608412504</v>
       </c>
       <c r="G12">
-        <v>1.178811060656074</v>
+        <v>1.198174466600506</v>
       </c>
       <c r="H12">
-        <v>1.097359180564268</v>
+        <v>0.6800212202111879</v>
       </c>
       <c r="I12">
-        <v>0.9965718883977246</v>
+        <v>0.9546616531782206</v>
       </c>
       <c r="J12">
-        <v>0.1545833125015292</v>
+        <v>0.08617135663588726</v>
       </c>
       <c r="K12">
-        <v>1.896493977349166</v>
+        <v>5.289875002616213</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5489010792164351</v>
+        <v>1.165321220155604</v>
       </c>
       <c r="N12">
-        <v>1.41742056051153</v>
+        <v>0.5966117162813021</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02931551475958827</v>
+        <v>0.05952053629508214</v>
       </c>
       <c r="D13">
-        <v>0.1329653044314725</v>
+        <v>0.1014722587551447</v>
       </c>
       <c r="E13">
-        <v>0.1282678567238307</v>
+        <v>0.08114097214605209</v>
       </c>
       <c r="F13">
-        <v>1.79191535114326</v>
+        <v>1.49090283511876</v>
       </c>
       <c r="G13">
-        <v>1.178125402163801</v>
+        <v>1.192743148202055</v>
       </c>
       <c r="H13">
-        <v>1.097339218283707</v>
+        <v>0.677953075345016</v>
       </c>
       <c r="I13">
-        <v>0.9960384262984121</v>
+        <v>0.9504675206984672</v>
       </c>
       <c r="J13">
-        <v>0.1545896953931774</v>
+        <v>0.08594637182223153</v>
       </c>
       <c r="K13">
-        <v>1.888437404213732</v>
+        <v>5.260465979981802</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5472466185129292</v>
+        <v>1.158920515479068</v>
       </c>
       <c r="N13">
-        <v>1.418279749457227</v>
+        <v>0.5986772970634107</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02902858299982825</v>
+        <v>0.05864388832499401</v>
       </c>
       <c r="D14">
-        <v>0.1326648150337846</v>
+        <v>0.1000799186029298</v>
       </c>
       <c r="E14">
-        <v>0.1281689156973371</v>
+        <v>0.08025546478708634</v>
       </c>
       <c r="F14">
-        <v>1.789817748091153</v>
+        <v>1.471292579304418</v>
       </c>
       <c r="G14">
-        <v>1.175910841309189</v>
+        <v>1.175134186714018</v>
       </c>
       <c r="H14">
-        <v>1.097289228096287</v>
+        <v>0.6712618917023008</v>
       </c>
       <c r="I14">
-        <v>0.9943154166577273</v>
+        <v>0.9368648703070193</v>
       </c>
       <c r="J14">
-        <v>0.1546123952298757</v>
+        <v>0.08521850188758862</v>
       </c>
       <c r="K14">
-        <v>1.862170676113067</v>
+        <v>5.164679167415727</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5418552640756218</v>
+        <v>1.138078300419977</v>
       </c>
       <c r="N14">
-        <v>1.421096436082784</v>
+        <v>0.6054570700934931</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02885266831181355</v>
+        <v>0.05810719090226968</v>
       </c>
       <c r="D15">
-        <v>0.1324814003137433</v>
+        <v>0.09922871167919567</v>
       </c>
       <c r="E15">
-        <v>0.1281092762420108</v>
+        <v>0.07971572029278562</v>
       </c>
       <c r="F15">
-        <v>1.788554087524815</v>
+        <v>1.459366206685004</v>
       </c>
       <c r="G15">
-        <v>1.17457088508354</v>
+        <v>1.164426716634694</v>
       </c>
       <c r="H15">
-        <v>1.097270216502665</v>
+        <v>0.6672038981334083</v>
       </c>
       <c r="I15">
-        <v>0.9932728700061233</v>
+        <v>0.9285898836375281</v>
       </c>
       <c r="J15">
-        <v>0.1546277469346862</v>
+        <v>0.08477710302906871</v>
       </c>
       <c r="K15">
-        <v>1.846087333466755</v>
+        <v>5.106099041815185</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5385561361128453</v>
+        <v>1.12533586576815</v>
       </c>
       <c r="N15">
-        <v>1.422833020434567</v>
+        <v>0.6096429793213147</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02784211801053971</v>
+        <v>0.05503537168777939</v>
       </c>
       <c r="D16">
-        <v>0.1314402236786805</v>
+        <v>0.09437499305018804</v>
       </c>
       <c r="E16">
-        <v>0.1277823048443274</v>
+        <v>0.07666199960197062</v>
       </c>
       <c r="F16">
-        <v>1.781636913150749</v>
+        <v>1.392281215868167</v>
       </c>
       <c r="G16">
-        <v>1.167145006675483</v>
+        <v>1.104222045498403</v>
       </c>
       <c r="H16">
-        <v>1.097339083946878</v>
+        <v>0.6445485437677689</v>
       </c>
       <c r="I16">
-        <v>0.987495102258066</v>
+        <v>0.8820090299945704</v>
       </c>
       <c r="J16">
-        <v>0.1547378987394268</v>
+        <v>0.08231345317155814</v>
       </c>
       <c r="K16">
-        <v>1.754009618721511</v>
+        <v>4.771730915567559</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5196998667482973</v>
+        <v>1.052663480818275</v>
       </c>
       <c r="N16">
-        <v>1.432957550010386</v>
+        <v>0.634126136479054</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02721999757883964</v>
+        <v>0.05315382241073507</v>
       </c>
       <c r="D17">
-        <v>0.1308103641344545</v>
+        <v>0.09141798441021365</v>
       </c>
       <c r="E17">
-        <v>0.1275949349344856</v>
+        <v>0.07482232308326431</v>
       </c>
       <c r="F17">
-        <v>1.777682544369938</v>
+        <v>1.352198819577794</v>
       </c>
       <c r="G17">
-        <v>1.162814639980809</v>
+        <v>1.068268941451038</v>
       </c>
       <c r="H17">
-        <v>1.097539873295716</v>
+        <v>0.6311617576984219</v>
       </c>
       <c r="I17">
-        <v>0.9841258212111015</v>
+        <v>0.8541463790457868</v>
       </c>
       <c r="J17">
-        <v>0.1548252547314632</v>
+        <v>0.08085844222529204</v>
       </c>
       <c r="K17">
-        <v>1.697603504639631</v>
+        <v>4.567710244398995</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5081766748842043</v>
+        <v>1.008373235414993</v>
       </c>
       <c r="N17">
-        <v>1.439322806689333</v>
+        <v>0.6495752211995978</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02686137279351186</v>
+        <v>0.05207249976766093</v>
       </c>
       <c r="D18">
-        <v>0.1304513588972682</v>
+        <v>0.08972437227988195</v>
       </c>
       <c r="E18">
-        <v>0.1274920263935044</v>
+        <v>0.07377602353165713</v>
       </c>
       <c r="F18">
-        <v>1.775514205323901</v>
+        <v>1.329518373105017</v>
       </c>
       <c r="G18">
-        <v>1.16040649023428</v>
+        <v>1.047930631856616</v>
       </c>
       <c r="H18">
-        <v>1.097713575553968</v>
+        <v>0.6236411039286338</v>
       </c>
       <c r="I18">
-        <v>0.9822521723540447</v>
+        <v>0.8383687748902773</v>
       </c>
       <c r="J18">
-        <v>0.1548827661023182</v>
+        <v>0.0800413568355296</v>
       </c>
       <c r="K18">
-        <v>1.665190127671053</v>
+        <v>4.450736194923479</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5015652682322411</v>
+        <v>0.9829983418266153</v>
       </c>
       <c r="N18">
-        <v>1.443040571094826</v>
+        <v>0.658614121225682</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02673981198005748</v>
+        <v>0.05170652005570275</v>
       </c>
       <c r="D19">
-        <v>0.1303303694308369</v>
+        <v>0.08915214225506674</v>
       </c>
       <c r="E19">
-        <v>0.1274580187722378</v>
+        <v>0.07342374691389253</v>
       </c>
       <c r="F19">
-        <v>1.77479825491038</v>
+        <v>1.321901535446997</v>
       </c>
       <c r="G19">
-        <v>1.159605294686472</v>
+        <v>1.041101213989435</v>
       </c>
       <c r="H19">
-        <v>1.097782381683913</v>
+        <v>0.6211246775724533</v>
       </c>
       <c r="I19">
-        <v>0.9816288154895076</v>
+        <v>0.8330681175932924</v>
       </c>
       <c r="J19">
-        <v>0.1549034862048089</v>
+        <v>0.07976802231841873</v>
       </c>
       <c r="K19">
-        <v>1.65422068526243</v>
+        <v>4.411191943405129</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4993295876365949</v>
+        <v>0.9744232636915768</v>
       </c>
       <c r="N19">
-        <v>1.444309067373347</v>
+        <v>0.6617003710008049</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02728630599111881</v>
+        <v>0.05335402007742829</v>
       </c>
       <c r="D20">
-        <v>0.130877075302962</v>
+        <v>0.09173201132836795</v>
       </c>
       <c r="E20">
-        <v>0.1276143777218905</v>
+        <v>0.0750169230541502</v>
       </c>
       <c r="F20">
-        <v>1.778092508795538</v>
+        <v>1.356426521026819</v>
       </c>
       <c r="G20">
-        <v>1.16326706578478</v>
+        <v>1.072060496117672</v>
       </c>
       <c r="H20">
-        <v>1.097512472917529</v>
+        <v>0.6325680745676436</v>
       </c>
       <c r="I20">
-        <v>0.9844778324865047</v>
+        <v>0.8570864078005442</v>
       </c>
       <c r="J20">
-        <v>0.1548152034103651</v>
+        <v>0.08101126146312509</v>
       </c>
       <c r="K20">
-        <v>1.703604941456717</v>
+        <v>4.589389255336641</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5094016395780443</v>
+        <v>1.013077523791843</v>
       </c>
       <c r="N20">
-        <v>1.438639351949526</v>
+        <v>0.6479146990174804</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02911289532325156</v>
+        <v>0.05890132276064719</v>
       </c>
       <c r="D21">
-        <v>0.1327529419833269</v>
+        <v>0.1004885382045515</v>
       </c>
       <c r="E21">
-        <v>0.1281977760414748</v>
+        <v>0.08051500331558614</v>
       </c>
       <c r="F21">
-        <v>1.790429449934251</v>
+        <v>1.477034651980546</v>
       </c>
       <c r="G21">
-        <v>1.176557866420751</v>
+        <v>1.180289883015064</v>
       </c>
       <c r="H21">
-        <v>1.097301491872827</v>
+        <v>0.6732187499137865</v>
       </c>
       <c r="I21">
-        <v>0.9948188285406019</v>
+        <v>0.940848329634747</v>
       </c>
       <c r="J21">
-        <v>0.1546054260833216</v>
+        <v>0.08543136359394055</v>
       </c>
       <c r="K21">
-        <v>1.869884646648416</v>
+        <v>5.192794694320867</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.543438162327945</v>
+        <v>1.144195111547575</v>
       </c>
       <c r="N21">
-        <v>1.420266755534946</v>
+        <v>0.6034587586713585</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03029949469727455</v>
+        <v>0.06253862303757529</v>
       </c>
       <c r="D22">
-        <v>0.1340077782738405</v>
+        <v>0.1062838523601641</v>
       </c>
       <c r="E22">
-        <v>0.128622254384716</v>
+        <v>0.08422562776718223</v>
       </c>
       <c r="F22">
-        <v>1.799440049772087</v>
+        <v>1.559629651580053</v>
       </c>
       <c r="G22">
-        <v>1.185983346889827</v>
+        <v>1.254485662870763</v>
       </c>
       <c r="H22">
-        <v>1.097683053205515</v>
+        <v>0.7015767830631603</v>
       </c>
       <c r="I22">
-        <v>1.002151949853342</v>
+        <v>0.9981061688365713</v>
       </c>
       <c r="J22">
-        <v>0.1545330982544186</v>
+        <v>0.08851649047504395</v>
       </c>
       <c r="K22">
-        <v>1.978817891913195</v>
+        <v>5.591187178416249</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5658278504632221</v>
+        <v>1.230942479105309</v>
       </c>
       <c r="N22">
-        <v>1.408764107929649</v>
+        <v>0.5758725886129739</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02966684532729857</v>
+        <v>0.06059604954376141</v>
       </c>
       <c r="D23">
-        <v>0.1333354232810322</v>
+        <v>0.103183724664035</v>
       </c>
       <c r="E23">
-        <v>0.1283917548139044</v>
+        <v>0.08223385471183775</v>
       </c>
       <c r="F23">
-        <v>1.794544072401564</v>
+        <v>1.515179561797439</v>
       </c>
       <c r="G23">
-        <v>1.180884963750259</v>
+        <v>1.214547468025359</v>
       </c>
       <c r="H23">
-        <v>1.097431825098994</v>
+        <v>0.6862677126497942</v>
       </c>
       <c r="I23">
-        <v>0.9981854276658595</v>
+        <v>0.9673009477378258</v>
       </c>
       <c r="J23">
-        <v>0.1545657709121073</v>
+        <v>0.08685091195037842</v>
       </c>
       <c r="K23">
-        <v>1.920654713407259</v>
+        <v>5.378152356357759</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5538648678195557</v>
+        <v>1.184538754356993</v>
       </c>
       <c r="N23">
-        <v>1.414857060153878</v>
+        <v>0.5904560795058984</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02725633094537017</v>
+        <v>0.05326350949189163</v>
       </c>
       <c r="D24">
-        <v>0.1308469054954102</v>
+        <v>0.09159001987913484</v>
       </c>
       <c r="E24">
-        <v>0.1276055726451872</v>
+        <v>0.07492890916733685</v>
       </c>
       <c r="F24">
-        <v>1.777906836581863</v>
+        <v>1.354514049848078</v>
       </c>
       <c r="G24">
-        <v>1.163062270449615</v>
+        <v>1.070345305928413</v>
       </c>
       <c r="H24">
-        <v>1.097524679136157</v>
+        <v>0.6319317338950299</v>
       </c>
       <c r="I24">
-        <v>0.984318490735717</v>
+        <v>0.8557564733842113</v>
       </c>
       <c r="J24">
-        <v>0.1548197249078385</v>
+        <v>0.08094211161242271</v>
       </c>
       <c r="K24">
-        <v>1.700891644301521</v>
+        <v>4.579587184880324</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.508847791192153</v>
+        <v>1.010950442210692</v>
       </c>
       <c r="N24">
-        <v>1.438948160252416</v>
+        <v>0.6486649331664047</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02462574747838886</v>
+        <v>0.04538651817821204</v>
       </c>
       <c r="D25">
-        <v>0.1282879497652658</v>
+        <v>0.07935480534863615</v>
       </c>
       <c r="E25">
-        <v>0.1269434731496553</v>
+        <v>0.06749600483847473</v>
       </c>
       <c r="F25">
-        <v>1.764015876577687</v>
+        <v>1.195294289330334</v>
       </c>
       <c r="G25">
-        <v>1.146991683314042</v>
+        <v>0.9276331857810618</v>
       </c>
       <c r="H25">
-        <v>1.099849803755262</v>
+        <v>0.5800747044367682</v>
       </c>
       <c r="I25">
-        <v>0.9718165438495205</v>
+        <v>0.7447841241786577</v>
       </c>
       <c r="J25">
-        <v>0.1553714274959148</v>
+        <v>0.07531584432059546</v>
       </c>
       <c r="K25">
-        <v>1.464988934601934</v>
+        <v>3.732138424112065</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4609183635856837</v>
+        <v>0.8274389051089059</v>
       </c>
       <c r="N25">
-        <v>1.467099449726749</v>
+        <v>0.7172514581758911</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03959496068862478</v>
+        <v>0.02530757990410137</v>
       </c>
       <c r="D2">
-        <v>0.07053651956881168</v>
+        <v>0.03849820113477831</v>
       </c>
       <c r="E2">
-        <v>0.06234926410081698</v>
+        <v>0.1457020507759488</v>
       </c>
       <c r="F2">
-        <v>1.088061692814932</v>
+        <v>4.41501686542793</v>
       </c>
       <c r="G2">
-        <v>0.8315595499273343</v>
+        <v>4.341347695604071</v>
       </c>
       <c r="H2">
-        <v>0.5467671062910426</v>
+        <v>0.01250025318320952</v>
       </c>
       <c r="I2">
-        <v>0.669659252481182</v>
+        <v>0.04158091821135423</v>
       </c>
       <c r="J2">
-        <v>0.07171999720445044</v>
+        <v>2.279514476562611</v>
       </c>
       <c r="K2">
-        <v>3.116674619043579</v>
+        <v>3.000884933238879</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3614975481988836</v>
       </c>
       <c r="M2">
-        <v>0.6947123788483225</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7722477405193118</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0356664225983252</v>
+        <v>0.02060394853604564</v>
       </c>
       <c r="D3">
-        <v>0.06466042821338647</v>
+        <v>0.03668126136687988</v>
       </c>
       <c r="E3">
-        <v>0.05903874756950245</v>
+        <v>0.1299481629137844</v>
       </c>
       <c r="F3">
-        <v>1.020688341493951</v>
+        <v>3.896523577508248</v>
       </c>
       <c r="G3">
-        <v>0.7711640575882512</v>
+        <v>3.806348190835251</v>
       </c>
       <c r="H3">
-        <v>0.5268206417734689</v>
+        <v>0.007188981325006893</v>
       </c>
       <c r="I3">
-        <v>0.6222068651925881</v>
+        <v>0.02964100696621808</v>
       </c>
       <c r="J3">
-        <v>0.06958134550706063</v>
+        <v>2.023441098357893</v>
       </c>
       <c r="K3">
-        <v>2.703343785642232</v>
+        <v>2.642539970400435</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3177075171421819</v>
       </c>
       <c r="M3">
-        <v>0.605893168262277</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8121057469760835</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03324997007744912</v>
+        <v>0.01795178113028228</v>
       </c>
       <c r="D4">
-        <v>0.06109636107149186</v>
+        <v>0.03557681399436818</v>
       </c>
       <c r="E4">
-        <v>0.0570858331672337</v>
+        <v>0.1203780790145288</v>
       </c>
       <c r="F4">
-        <v>0.9816529817722852</v>
+        <v>3.579894877065783</v>
       </c>
       <c r="G4">
-        <v>0.7361357249793059</v>
+        <v>3.479479422420127</v>
       </c>
       <c r="H4">
-        <v>0.5157446914734578</v>
+        <v>0.004589649495428061</v>
       </c>
       <c r="I4">
-        <v>0.5945838855555223</v>
+        <v>0.02317982289982456</v>
       </c>
       <c r="J4">
-        <v>0.06840247332207028</v>
+        <v>1.867054595346417</v>
       </c>
       <c r="K4">
-        <v>2.450964691716081</v>
+        <v>2.423234304334329</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2910556033687044</v>
       </c>
       <c r="M4">
-        <v>0.5518082090471736</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8377887642919326</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03226382242482373</v>
+        <v>0.01703956565342324</v>
       </c>
       <c r="D5">
-        <v>0.05965427183621586</v>
+        <v>0.03513160216918454</v>
       </c>
       <c r="E5">
-        <v>0.05630899185241844</v>
+        <v>0.1165223762367269</v>
       </c>
       <c r="F5">
-        <v>0.9662933270296463</v>
+        <v>3.448187686978628</v>
       </c>
       <c r="G5">
-        <v>0.72234070437338</v>
+        <v>3.343135941555659</v>
       </c>
       <c r="H5">
-        <v>0.5115085133763557</v>
+        <v>0.003675535491536541</v>
       </c>
       <c r="I5">
-        <v>0.5836809945513437</v>
+        <v>0.02076134590235057</v>
       </c>
       <c r="J5">
-        <v>0.06795405696969326</v>
+        <v>1.801777461094133</v>
       </c>
       <c r="K5">
-        <v>2.348411055035427</v>
+        <v>2.331037950559434</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2801572479972734</v>
       </c>
       <c r="M5">
-        <v>0.529866908226154</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8485498263792728</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03209997790224151</v>
+        <v>0.01703453272934752</v>
       </c>
       <c r="D6">
-        <v>0.05941541535219841</v>
+        <v>0.03506201433157408</v>
       </c>
       <c r="E6">
-        <v>0.05618111468875853</v>
+        <v>0.1159130126189929</v>
       </c>
       <c r="F6">
-        <v>0.9637748480500647</v>
+        <v>3.422653255605582</v>
       </c>
       <c r="G6">
-        <v>0.7200779510104809</v>
+        <v>3.316298892327637</v>
       </c>
       <c r="H6">
-        <v>0.5108213692398351</v>
+        <v>0.003524344546324665</v>
       </c>
       <c r="I6">
-        <v>0.5818911886666882</v>
+        <v>0.02040022439206535</v>
       </c>
       <c r="J6">
-        <v>0.06788147948029888</v>
+        <v>1.788854924748279</v>
       </c>
       <c r="K6">
-        <v>2.331398082613362</v>
+        <v>2.312135445703206</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2782490399048712</v>
       </c>
       <c r="M6">
-        <v>0.5262291307241327</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8503542519462144</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03323667674135322</v>
+        <v>0.01832844436648173</v>
       </c>
       <c r="D7">
-        <v>0.06107687179652999</v>
+        <v>0.03558145040191407</v>
       </c>
       <c r="E7">
-        <v>0.05707528090094982</v>
+        <v>0.1204071124686514</v>
       </c>
       <c r="F7">
-        <v>0.9814436686610577</v>
+        <v>3.56801197782633</v>
       </c>
       <c r="G7">
-        <v>0.7359477875460243</v>
+        <v>3.466074105351169</v>
       </c>
       <c r="H7">
-        <v>0.5156864597848596</v>
+        <v>0.004550847496693766</v>
       </c>
       <c r="I7">
-        <v>0.5944354474282108</v>
+        <v>0.0232032761166483</v>
       </c>
       <c r="J7">
-        <v>0.0683962985964115</v>
+        <v>1.860433665788406</v>
       </c>
       <c r="K7">
-        <v>2.449580509413579</v>
+        <v>2.412112240894416</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2906298626361234</v>
       </c>
       <c r="M7">
-        <v>0.5515119196007063</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8379327089866422</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03824108410536553</v>
+        <v>0.02414560091607854</v>
       </c>
       <c r="D8">
-        <v>0.06850087632187041</v>
+        <v>0.03787991972306104</v>
       </c>
       <c r="E8">
-        <v>0.06119058069041472</v>
+        <v>0.1403503828431525</v>
       </c>
       <c r="F8">
-        <v>1.064323166307403</v>
+        <v>4.222218224593348</v>
       </c>
       <c r="G8">
-        <v>0.8102854921851446</v>
+        <v>4.140905040596294</v>
       </c>
       <c r="H8">
-        <v>0.5396358026693377</v>
+        <v>0.01047111657044014</v>
       </c>
       <c r="I8">
-        <v>0.6529670221659103</v>
+        <v>0.03728065424161819</v>
       </c>
       <c r="J8">
-        <v>0.07095361758146623</v>
+        <v>2.183295917918713</v>
       </c>
       <c r="K8">
-        <v>2.973827819348145</v>
+        <v>2.86384571420497</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.345957177333176</v>
       </c>
       <c r="M8">
-        <v>0.6639849894312917</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7857338915869398</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04803738474659269</v>
+        <v>0.03705367405908078</v>
       </c>
       <c r="D9">
-        <v>0.08344402346691027</v>
+        <v>0.04252229390794815</v>
       </c>
       <c r="E9">
-        <v>0.06994547314860711</v>
+        <v>0.1804287422413289</v>
       </c>
       <c r="F9">
-        <v>1.247241247041671</v>
+        <v>5.542490345405042</v>
       </c>
       <c r="G9">
-        <v>0.9741792632642614</v>
+        <v>5.503617423949834</v>
       </c>
       <c r="H9">
-        <v>0.5967268743454355</v>
+        <v>0.02812448641545551</v>
       </c>
       <c r="I9">
-        <v>0.7810510452764561</v>
+        <v>0.07289702356485162</v>
       </c>
       <c r="J9">
-        <v>0.07712007641333685</v>
+        <v>2.83614555183317</v>
       </c>
       <c r="K9">
-        <v>4.016063162541911</v>
+        <v>3.776803897848907</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4575455869853613</v>
       </c>
       <c r="M9">
-        <v>0.8888321307505578</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.693418553884193</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.05525020332709829</v>
+        <v>0.04775279411845901</v>
       </c>
       <c r="D10">
-        <v>0.09471340891292357</v>
+        <v>0.04609521475837308</v>
       </c>
       <c r="E10">
-        <v>0.07687356188683481</v>
+        <v>0.2034128747281976</v>
       </c>
       <c r="F10">
-        <v>1.396906993655932</v>
+        <v>6.458673739517423</v>
       </c>
       <c r="G10">
-        <v>1.108372129215752</v>
+        <v>6.458952079745927</v>
       </c>
       <c r="H10">
-        <v>0.6461009704486287</v>
+        <v>0.0450236916836575</v>
       </c>
       <c r="I10">
-        <v>0.8852229797519726</v>
+        <v>0.1046329206362575</v>
       </c>
       <c r="J10">
-        <v>0.08248222799770133</v>
+        <v>3.293234422529565</v>
       </c>
       <c r="K10">
-        <v>4.795063969085788</v>
+        <v>4.41526531901772</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5222851922276419</v>
       </c>
       <c r="M10">
-        <v>1.057731355264295</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6323843646633023</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05854123941983858</v>
+        <v>0.04699924791760424</v>
       </c>
       <c r="D11">
-        <v>0.09991704522357736</v>
+        <v>0.04968172028182849</v>
       </c>
       <c r="E11">
-        <v>0.08015209281803237</v>
+        <v>0.1555499217350764</v>
       </c>
       <c r="F11">
-        <v>1.46900686409785</v>
+        <v>6.273379315621014</v>
       </c>
       <c r="G11">
-        <v>1.173081973600944</v>
+        <v>6.364701322554708</v>
       </c>
       <c r="H11">
-        <v>0.6704834926925969</v>
+        <v>0.06447390088507277</v>
       </c>
       <c r="I11">
-        <v>0.9352790859750826</v>
+        <v>0.1123442161460373</v>
       </c>
       <c r="J11">
-        <v>0.08513383132581964</v>
+        <v>3.240513566526658</v>
       </c>
       <c r="K11">
-        <v>5.153471461566824</v>
+        <v>4.362591407360071</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3959579962714912</v>
       </c>
       <c r="M11">
-        <v>1.135640147889887</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6062555907336034</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05978946028858445</v>
+        <v>0.04404288028756653</v>
       </c>
       <c r="D12">
-        <v>0.1018998621049647</v>
+        <v>0.05499103712707765</v>
       </c>
       <c r="E12">
-        <v>0.08141357131010096</v>
+        <v>0.1205377615131944</v>
       </c>
       <c r="F12">
-        <v>1.496950608412504</v>
+        <v>5.940551142647479</v>
       </c>
       <c r="G12">
-        <v>1.198174466600506</v>
+        <v>6.100581416904504</v>
       </c>
       <c r="H12">
-        <v>0.6800212202111879</v>
+        <v>0.1012003956196494</v>
       </c>
       <c r="I12">
-        <v>0.9546616531782206</v>
+        <v>0.11191095511046</v>
       </c>
       <c r="J12">
-        <v>0.08617135663588726</v>
+        <v>3.107674585253619</v>
       </c>
       <c r="K12">
-        <v>5.289875002616213</v>
+        <v>4.198015914455027</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2971044664264682</v>
       </c>
       <c r="M12">
-        <v>1.165321220155604</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5966117162813021</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05952053629508214</v>
+        <v>0.03984519814573417</v>
       </c>
       <c r="D13">
-        <v>0.1014722587551447</v>
+        <v>0.06172516534379469</v>
       </c>
       <c r="E13">
-        <v>0.08114097214605209</v>
+        <v>0.0937191896675138</v>
       </c>
       <c r="F13">
-        <v>1.49090283511876</v>
+        <v>5.462166455346079</v>
       </c>
       <c r="G13">
-        <v>1.192743148202055</v>
+        <v>5.674454649982636</v>
       </c>
       <c r="H13">
-        <v>0.677953075345016</v>
+        <v>0.1526273849752187</v>
       </c>
       <c r="I13">
-        <v>0.9504675206984672</v>
+        <v>0.1051367257849778</v>
       </c>
       <c r="J13">
-        <v>0.08594637182223153</v>
+        <v>2.897495180737451</v>
       </c>
       <c r="K13">
-        <v>5.260465979981802</v>
+        <v>3.923486722282945</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2141186093796108</v>
       </c>
       <c r="M13">
-        <v>1.158920515479068</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5986772970634107</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05864388832499401</v>
+        <v>0.03656835534975755</v>
       </c>
       <c r="D14">
-        <v>0.1000799186029298</v>
+        <v>0.06730994249994637</v>
       </c>
       <c r="E14">
-        <v>0.08025546478708634</v>
+        <v>0.08022330422017188</v>
       </c>
       <c r="F14">
-        <v>1.471292579304418</v>
+        <v>5.063593282983589</v>
       </c>
       <c r="G14">
-        <v>1.175134186714018</v>
+        <v>5.303764373302101</v>
       </c>
       <c r="H14">
-        <v>0.6712618917023008</v>
+        <v>0.1981102915223545</v>
       </c>
       <c r="I14">
-        <v>0.9368648703070193</v>
+        <v>0.09784336930906701</v>
       </c>
       <c r="J14">
-        <v>0.08521850188758862</v>
+        <v>2.715725790333579</v>
       </c>
       <c r="K14">
-        <v>5.164679167415727</v>
+        <v>3.681341100215917</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1666918686179244</v>
       </c>
       <c r="M14">
-        <v>1.138078300419977</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6054570700934931</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05810719090226968</v>
+        <v>0.03549873549428462</v>
       </c>
       <c r="D15">
-        <v>0.09922871167919567</v>
+        <v>0.06845280661959663</v>
       </c>
       <c r="E15">
-        <v>0.07971572029278562</v>
+        <v>0.07736170118844621</v>
       </c>
       <c r="F15">
-        <v>1.459366206685004</v>
+        <v>4.932948795068882</v>
       </c>
       <c r="G15">
-        <v>1.164426716634694</v>
+        <v>5.175930152408057</v>
       </c>
       <c r="H15">
-        <v>0.6672038981334083</v>
+        <v>0.2090622685527848</v>
       </c>
       <c r="I15">
-        <v>0.9285898836375281</v>
+        <v>0.09480245898942652</v>
       </c>
       <c r="J15">
-        <v>0.08477710302906871</v>
+        <v>2.653500472848634</v>
       </c>
       <c r="K15">
-        <v>5.106099041815185</v>
+        <v>3.596103265970982</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1559084850232892</v>
       </c>
       <c r="M15">
-        <v>1.12533586576815</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6096429793213147</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.05503537168777939</v>
+        <v>0.03194801730529129</v>
       </c>
       <c r="D16">
-        <v>0.09437499305018804</v>
+        <v>0.06501382298988645</v>
       </c>
       <c r="E16">
-        <v>0.07666199960197062</v>
+        <v>0.07416433884563567</v>
       </c>
       <c r="F16">
-        <v>1.392281215868167</v>
+        <v>4.646083498739813</v>
       </c>
       <c r="G16">
-        <v>1.104222045498403</v>
+        <v>4.858231236199856</v>
       </c>
       <c r="H16">
-        <v>0.6445485437677689</v>
+        <v>0.1900951308770971</v>
       </c>
       <c r="I16">
-        <v>0.8820090299945704</v>
+        <v>0.08265144909697675</v>
       </c>
       <c r="J16">
-        <v>0.08231345317155814</v>
+        <v>2.502571839510381</v>
       </c>
       <c r="K16">
-        <v>4.771730915567559</v>
+        <v>3.380108683851802</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1488499971552706</v>
       </c>
       <c r="M16">
-        <v>1.052663480818275</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.634126136479054</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05315382241073507</v>
+        <v>0.03095376344486667</v>
       </c>
       <c r="D17">
-        <v>0.09141798441021365</v>
+        <v>0.05928009444880544</v>
       </c>
       <c r="E17">
-        <v>0.07482232308326431</v>
+        <v>0.07777104053392225</v>
       </c>
       <c r="F17">
-        <v>1.352198819577794</v>
+        <v>4.634217950637662</v>
       </c>
       <c r="G17">
-        <v>1.068268941451038</v>
+        <v>4.808561700229461</v>
       </c>
       <c r="H17">
-        <v>0.6311617576984219</v>
+        <v>0.1495620955521417</v>
       </c>
       <c r="I17">
-        <v>0.8541463790457868</v>
+        <v>0.07718567012523003</v>
       </c>
       <c r="J17">
-        <v>0.08085844222529204</v>
+        <v>2.482022432519045</v>
       </c>
       <c r="K17">
-        <v>4.567710244398995</v>
+        <v>3.341127117933411</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1659959176962786</v>
       </c>
       <c r="M17">
-        <v>1.008373235414993</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6495752211995978</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.05207249976766093</v>
+        <v>0.03208479076806725</v>
       </c>
       <c r="D18">
-        <v>0.08972437227988195</v>
+        <v>0.05243220684409877</v>
       </c>
       <c r="E18">
-        <v>0.07377602353165713</v>
+        <v>0.09271026013538197</v>
       </c>
       <c r="F18">
-        <v>1.329518373105017</v>
+        <v>4.867240381109269</v>
       </c>
       <c r="G18">
-        <v>1.047930631856616</v>
+        <v>4.993271171975493</v>
       </c>
       <c r="H18">
-        <v>0.6236411039286338</v>
+        <v>0.09683103892395195</v>
       </c>
       <c r="I18">
-        <v>0.8383687748902773</v>
+        <v>0.07646373668310513</v>
       </c>
       <c r="J18">
-        <v>0.0800413568355296</v>
+        <v>2.575842305475703</v>
       </c>
       <c r="K18">
-        <v>4.450736194923479</v>
+        <v>3.457865405635573</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2165096372171789</v>
       </c>
       <c r="M18">
-        <v>0.9829983418266153</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.658614121225682</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05170652005570275</v>
+        <v>0.0357930807377862</v>
       </c>
       <c r="D19">
-        <v>0.08915214225506674</v>
+        <v>0.0468845233334676</v>
       </c>
       <c r="E19">
-        <v>0.07342374691389253</v>
+        <v>0.1235029883777123</v>
       </c>
       <c r="F19">
-        <v>1.321901535446997</v>
+        <v>5.270442525377319</v>
       </c>
       <c r="G19">
-        <v>1.041101213989435</v>
+        <v>5.337619851611919</v>
       </c>
       <c r="H19">
-        <v>0.6211246775724533</v>
+        <v>0.05447948992619445</v>
       </c>
       <c r="I19">
-        <v>0.8330681175932924</v>
+        <v>0.07988839083177179</v>
       </c>
       <c r="J19">
-        <v>0.07976802231841873</v>
+        <v>2.746914553092665</v>
       </c>
       <c r="K19">
-        <v>4.411191943405129</v>
+        <v>3.67653936256545</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3062164097669751</v>
       </c>
       <c r="M19">
-        <v>0.9744232636915768</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6617003710008049</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.05335402007742829</v>
+        <v>0.04599822056901104</v>
       </c>
       <c r="D20">
-        <v>0.09173201132836795</v>
+        <v>0.04513560542505379</v>
       </c>
       <c r="E20">
-        <v>0.0750169230541502</v>
+        <v>0.1971992113290142</v>
       </c>
       <c r="F20">
-        <v>1.356426521026819</v>
+        <v>6.180471316451957</v>
       </c>
       <c r="G20">
-        <v>1.072060496117672</v>
+        <v>6.165946316648615</v>
       </c>
       <c r="H20">
-        <v>0.6325680745676436</v>
+        <v>0.03994819965805174</v>
       </c>
       <c r="I20">
-        <v>0.8570864078005442</v>
+        <v>0.09563181694514888</v>
       </c>
       <c r="J20">
-        <v>0.08101126146312509</v>
+        <v>3.152380284082142</v>
       </c>
       <c r="K20">
-        <v>4.589389255336641</v>
+        <v>4.212672216933413</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5032859591924534</v>
       </c>
       <c r="M20">
-        <v>1.013077523791843</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6479146990174804</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05890132276064719</v>
+        <v>0.05595390939212308</v>
       </c>
       <c r="D21">
-        <v>0.1004885382045515</v>
+        <v>0.04802711130026882</v>
       </c>
       <c r="E21">
-        <v>0.08051500331558614</v>
+        <v>0.2270762032005749</v>
       </c>
       <c r="F21">
-        <v>1.477034651980546</v>
+        <v>7.00385839910976</v>
       </c>
       <c r="G21">
-        <v>1.180289883015064</v>
+        <v>7.00659987728784</v>
       </c>
       <c r="H21">
-        <v>0.6732187499137865</v>
+        <v>0.05596716745824537</v>
       </c>
       <c r="I21">
-        <v>0.940848329634747</v>
+        <v>0.1239684240399761</v>
       </c>
       <c r="J21">
-        <v>0.08543136359394055</v>
+        <v>3.556111394521963</v>
       </c>
       <c r="K21">
-        <v>5.192794694320867</v>
+        <v>4.772466366620392</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5847568897229962</v>
       </c>
       <c r="M21">
-        <v>1.144195111547575</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6034587586713585</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06253862303757529</v>
+        <v>0.06203734334928868</v>
       </c>
       <c r="D22">
-        <v>0.1062838523601641</v>
+        <v>0.04995155858767397</v>
       </c>
       <c r="E22">
-        <v>0.08422562776718223</v>
+        <v>0.2430053644035404</v>
       </c>
       <c r="F22">
-        <v>1.559629651580053</v>
+        <v>7.528306382752277</v>
       </c>
       <c r="G22">
-        <v>1.254485662870763</v>
+        <v>7.548982079171935</v>
       </c>
       <c r="H22">
-        <v>0.7015767830631603</v>
+        <v>0.06743936639306369</v>
       </c>
       <c r="I22">
-        <v>0.9981061688365713</v>
+        <v>0.1439519507455973</v>
       </c>
       <c r="J22">
-        <v>0.08851649047504395</v>
+        <v>3.816482875352222</v>
       </c>
       <c r="K22">
-        <v>5.591187178416249</v>
+        <v>5.136927789884368</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.6293252262281328</v>
       </c>
       <c r="M22">
-        <v>1.230942479105309</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5758725886129739</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06059604954376141</v>
+        <v>0.05826443173650375</v>
       </c>
       <c r="D23">
-        <v>0.103183724664035</v>
+        <v>0.04891013282788315</v>
       </c>
       <c r="E23">
-        <v>0.08223385471183775</v>
+        <v>0.2343829972217755</v>
       </c>
       <c r="F23">
-        <v>1.515179561797439</v>
+        <v>7.26062150022787</v>
       </c>
       <c r="G23">
-        <v>1.214547468025359</v>
+        <v>7.27358668603938</v>
       </c>
       <c r="H23">
-        <v>0.6862677126497942</v>
+        <v>0.06130129177952437</v>
       </c>
       <c r="I23">
-        <v>0.9673009477378258</v>
+        <v>0.1331955233507349</v>
       </c>
       <c r="J23">
-        <v>0.08685091195037842</v>
+        <v>3.684479427873157</v>
       </c>
       <c r="K23">
-        <v>5.378152356357759</v>
+        <v>4.954556956228828</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6058531923383725</v>
       </c>
       <c r="M23">
-        <v>1.184538754356993</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5904560795058984</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.05326350949189163</v>
+        <v>0.04575942820657986</v>
       </c>
       <c r="D24">
-        <v>0.09159001987913484</v>
+        <v>0.0451206258247101</v>
       </c>
       <c r="E24">
-        <v>0.07492890916733685</v>
+        <v>0.2026132502123694</v>
       </c>
       <c r="F24">
-        <v>1.354514049848078</v>
+        <v>6.240045933299456</v>
       </c>
       <c r="G24">
-        <v>1.070345305928413</v>
+        <v>6.221027741735895</v>
       </c>
       <c r="H24">
-        <v>0.6319317338950299</v>
+        <v>0.04043978303278983</v>
       </c>
       <c r="I24">
-        <v>0.8557564733842113</v>
+        <v>0.09594535268348814</v>
       </c>
       <c r="J24">
-        <v>0.08094211161242271</v>
+        <v>3.179722158987886</v>
       </c>
       <c r="K24">
-        <v>4.579587184880324</v>
+        <v>4.252233634829025</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5181007230680166</v>
       </c>
       <c r="M24">
-        <v>1.010950442210692</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6486649331664047</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.04538651817821204</v>
+        <v>0.03399247821492679</v>
       </c>
       <c r="D25">
-        <v>0.07935480534863615</v>
+        <v>0.04125496634148451</v>
       </c>
       <c r="E25">
-        <v>0.06749600483847473</v>
+        <v>0.1695626108073327</v>
       </c>
       <c r="F25">
-        <v>1.195294289330334</v>
+        <v>5.163509800719595</v>
       </c>
       <c r="G25">
-        <v>0.9276331857810618</v>
+        <v>5.110444772448147</v>
       </c>
       <c r="H25">
-        <v>0.5800747044367682</v>
+        <v>0.02249879215959494</v>
       </c>
       <c r="I25">
-        <v>0.7447841241786577</v>
+        <v>0.0622096746132117</v>
       </c>
       <c r="J25">
-        <v>0.07531584432059546</v>
+        <v>2.647387546436391</v>
       </c>
       <c r="K25">
-        <v>3.732138424112065</v>
+        <v>3.509794645151842</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4264221469310172</v>
       </c>
       <c r="M25">
-        <v>0.8274389051089059</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7172514581758911</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_7/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,40 +436,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02530757990410137</v>
+        <v>0.1013322496481806</v>
       </c>
       <c r="D2">
-        <v>0.03849820113477831</v>
+        <v>0.04385360859546594</v>
       </c>
       <c r="E2">
-        <v>0.1457020507759488</v>
+        <v>0.152075453305784</v>
       </c>
       <c r="F2">
-        <v>4.41501686542793</v>
+        <v>3.48975470717852</v>
       </c>
       <c r="G2">
-        <v>4.341347695604071</v>
+        <v>3.255739232068663</v>
       </c>
       <c r="H2">
-        <v>0.01250025318320952</v>
+        <v>0.008150017016988642</v>
       </c>
       <c r="I2">
-        <v>0.04158091821135423</v>
+        <v>0.02910950984384186</v>
       </c>
       <c r="J2">
-        <v>2.279514476562611</v>
+        <v>1.833454001706372</v>
       </c>
       <c r="K2">
-        <v>3.000884933238879</v>
+        <v>2.117787284351806</v>
       </c>
       <c r="L2">
-        <v>0.3614975481988836</v>
+        <v>0.8840625794258159</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7367237900600969</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3320766605936996</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -474,8 +480,14 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,40 +495,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02060394853604564</v>
+        <v>0.0848361831092177</v>
       </c>
       <c r="D3">
-        <v>0.03668126136687988</v>
+        <v>0.04190175895834614</v>
       </c>
       <c r="E3">
-        <v>0.1299481629137844</v>
+        <v>0.1361796396948094</v>
       </c>
       <c r="F3">
-        <v>3.896523577508248</v>
+        <v>3.107092713748244</v>
       </c>
       <c r="G3">
-        <v>3.806348190835251</v>
+        <v>2.875717719611231</v>
       </c>
       <c r="H3">
-        <v>0.007188981325006893</v>
+        <v>0.004541821041636807</v>
       </c>
       <c r="I3">
-        <v>0.02964100696621808</v>
+        <v>0.02133880622969686</v>
       </c>
       <c r="J3">
-        <v>2.023441098357893</v>
+        <v>1.647929195256921</v>
       </c>
       <c r="K3">
-        <v>2.642539970400435</v>
+        <v>1.886913774307118</v>
       </c>
       <c r="L3">
-        <v>0.3177075171421819</v>
+        <v>0.8190620901335279</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6263665676817567</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2938387156070803</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -527,8 +539,14 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,40 +554,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01795178113028228</v>
+        <v>0.07517618757989908</v>
       </c>
       <c r="D4">
-        <v>0.03557681399436818</v>
+        <v>0.04073715013581847</v>
       </c>
       <c r="E4">
-        <v>0.1203780790145288</v>
+        <v>0.1264812624845959</v>
       </c>
       <c r="F4">
-        <v>3.579894877065783</v>
+        <v>2.872226844194699</v>
       </c>
       <c r="G4">
-        <v>3.479479422420127</v>
+        <v>2.642673142457767</v>
       </c>
       <c r="H4">
-        <v>0.004589649495428061</v>
+        <v>0.002798176707034195</v>
       </c>
       <c r="I4">
-        <v>0.02317982289982456</v>
+        <v>0.0170770772676323</v>
       </c>
       <c r="J4">
-        <v>1.867054595346417</v>
+        <v>1.533526031923941</v>
       </c>
       <c r="K4">
-        <v>2.423234304334329</v>
+        <v>1.744616395342376</v>
       </c>
       <c r="L4">
-        <v>0.2910556033687044</v>
+        <v>0.7780040895419233</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5599665476733264</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.270442782180254</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -580,8 +598,14 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,40 +613,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01703956565342324</v>
+        <v>0.07168814692728631</v>
       </c>
       <c r="D5">
-        <v>0.03513160216918454</v>
+        <v>0.04031089437073021</v>
       </c>
       <c r="E5">
-        <v>0.1165223762367269</v>
+        <v>0.1225687882115949</v>
       </c>
       <c r="F5">
-        <v>3.448187686978628</v>
+        <v>2.774061198117266</v>
       </c>
       <c r="G5">
-        <v>3.343135941555659</v>
+        <v>2.545003119433431</v>
       </c>
       <c r="H5">
-        <v>0.003675535491536541</v>
+        <v>0.00219315811446541</v>
       </c>
       <c r="I5">
-        <v>0.02076134590235057</v>
+        <v>0.0154979708952192</v>
       </c>
       <c r="J5">
-        <v>1.801777461094133</v>
+        <v>1.485379893820891</v>
       </c>
       <c r="K5">
-        <v>2.331037950559434</v>
+        <v>1.684222383084347</v>
       </c>
       <c r="L5">
-        <v>0.2801572479972734</v>
+        <v>0.7600837371190039</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5324301107715357</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2608534276221874</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -633,8 +657,14 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,40 +672,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01703453272934752</v>
+        <v>0.07153316903817597</v>
       </c>
       <c r="D6">
-        <v>0.03506201433157408</v>
+        <v>0.04029075102239155</v>
       </c>
       <c r="E6">
-        <v>0.1159130126189929</v>
+        <v>0.1219542292244888</v>
       </c>
       <c r="F6">
-        <v>3.422653255605582</v>
+        <v>2.754786897611893</v>
       </c>
       <c r="G6">
-        <v>3.316298892327637</v>
+        <v>2.525460750614656</v>
       </c>
       <c r="H6">
-        <v>0.003524344546324665</v>
+        <v>0.002094169386396505</v>
       </c>
       <c r="I6">
-        <v>0.02040022439206535</v>
+        <v>0.01530185208588364</v>
       </c>
       <c r="J6">
-        <v>1.788854924748279</v>
+        <v>1.475678566708666</v>
       </c>
       <c r="K6">
-        <v>2.312135445703206</v>
+        <v>1.671437218988814</v>
       </c>
       <c r="L6">
-        <v>0.2782490399048712</v>
+        <v>0.7559954149495951</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5268959169457048</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2591788901505154</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -686,8 +716,14 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,40 +731,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01832844436648173</v>
+        <v>0.07595229908518775</v>
       </c>
       <c r="D7">
-        <v>0.03558145040191407</v>
+        <v>0.04096309257287345</v>
       </c>
       <c r="E7">
-        <v>0.1204071124686514</v>
+        <v>0.1265893376317102</v>
       </c>
       <c r="F7">
-        <v>3.56801197782633</v>
+        <v>2.857816646650633</v>
       </c>
       <c r="G7">
-        <v>3.466074105351169</v>
+        <v>2.639179987286383</v>
       </c>
       <c r="H7">
-        <v>0.004550847496693766</v>
+        <v>0.00276653686232442</v>
       </c>
       <c r="I7">
-        <v>0.0232032761166483</v>
+        <v>0.01717124178680596</v>
       </c>
       <c r="J7">
-        <v>1.860433665788406</v>
+        <v>1.512351223316045</v>
       </c>
       <c r="K7">
-        <v>2.412112240894416</v>
+        <v>1.733027730630141</v>
       </c>
       <c r="L7">
-        <v>0.2906298626361234</v>
+        <v>0.7735093235583861</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5557064739905897</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2699588786651006</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -739,8 +775,14 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,40 +790,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02414560091607854</v>
+        <v>0.09599303033320439</v>
       </c>
       <c r="D8">
-        <v>0.03787991972306104</v>
+        <v>0.04368278644910717</v>
       </c>
       <c r="E8">
-        <v>0.1403503828431525</v>
+        <v>0.1469307501816175</v>
       </c>
       <c r="F8">
-        <v>4.222218224593348</v>
+        <v>3.330349357050977</v>
       </c>
       <c r="G8">
-        <v>4.140905040596294</v>
+        <v>3.135684684603575</v>
       </c>
       <c r="H8">
-        <v>0.01047111657044014</v>
+        <v>0.006734533400990173</v>
       </c>
       <c r="I8">
-        <v>0.03728065424161819</v>
+        <v>0.02635634112798613</v>
       </c>
       <c r="J8">
-        <v>2.183295917918713</v>
+        <v>1.710539352429549</v>
       </c>
       <c r="K8">
-        <v>2.86384571420497</v>
+        <v>2.017384454574668</v>
       </c>
       <c r="L8">
-        <v>0.345957177333176</v>
+        <v>0.8538738011745863</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.6905964652935666</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.3181341774368462</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -792,8 +834,14 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,40 +849,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03705367405908078</v>
+        <v>0.1385233938190567</v>
       </c>
       <c r="D9">
-        <v>0.04252229390794815</v>
+        <v>0.04873300019235671</v>
       </c>
       <c r="E9">
-        <v>0.1804287422413289</v>
+        <v>0.1870893530649766</v>
       </c>
       <c r="F9">
-        <v>5.542490345405042</v>
+        <v>4.292827859159644</v>
       </c>
       <c r="G9">
-        <v>5.503617423949834</v>
+        <v>4.105834085281259</v>
       </c>
       <c r="H9">
-        <v>0.02812448641545551</v>
+        <v>0.0187666210965507</v>
       </c>
       <c r="I9">
-        <v>0.07289702356485162</v>
+        <v>0.04891193206289923</v>
       </c>
       <c r="J9">
-        <v>2.83614555183317</v>
+        <v>2.161513664449728</v>
       </c>
       <c r="K9">
-        <v>3.776803897848907</v>
+        <v>2.597348757573101</v>
       </c>
       <c r="L9">
-        <v>0.4575455869853613</v>
+        <v>1.012409345472861</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.9761695825048378</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.4145407070844271</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -845,8 +893,14 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,40 +908,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04775279411845901</v>
+        <v>0.1687091169516322</v>
       </c>
       <c r="D10">
-        <v>0.04609521475837308</v>
+        <v>0.05214693496294487</v>
       </c>
       <c r="E10">
-        <v>0.2034128747281976</v>
+        <v>0.2096159142274949</v>
       </c>
       <c r="F10">
-        <v>6.458673739517423</v>
+        <v>4.919322469130293</v>
       </c>
       <c r="G10">
-        <v>6.458952079745927</v>
+        <v>4.819976942464734</v>
       </c>
       <c r="H10">
-        <v>0.0450236916836575</v>
+        <v>0.03016602349341424</v>
       </c>
       <c r="I10">
-        <v>0.1046329206362575</v>
+        <v>0.06839184725442049</v>
       </c>
       <c r="J10">
-        <v>3.293234422529565</v>
+        <v>2.375269656267335</v>
       </c>
       <c r="K10">
-        <v>4.41526531901772</v>
+        <v>2.97522418562798</v>
       </c>
       <c r="L10">
-        <v>0.5222851922276419</v>
+        <v>1.106473770451302</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.175167574251091</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.4672306702072291</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,8 +952,14 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,40 +967,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04699924791760424</v>
+        <v>0.1575712655401844</v>
       </c>
       <c r="D11">
-        <v>0.04968172028182849</v>
+        <v>0.0458614006063236</v>
       </c>
       <c r="E11">
-        <v>0.1555499217350764</v>
+        <v>0.1574507376224936</v>
       </c>
       <c r="F11">
-        <v>6.273379315621014</v>
+        <v>4.690136228352912</v>
       </c>
       <c r="G11">
-        <v>6.364701322554708</v>
+        <v>4.824402583954111</v>
       </c>
       <c r="H11">
-        <v>0.06447390088507277</v>
+        <v>0.04882325744471316</v>
       </c>
       <c r="I11">
-        <v>0.1123442161460373</v>
+        <v>0.07306675933926066</v>
       </c>
       <c r="J11">
-        <v>3.240513566526658</v>
+        <v>2.133387115918367</v>
       </c>
       <c r="K11">
-        <v>4.362591407360071</v>
+        <v>2.885370206577988</v>
       </c>
       <c r="L11">
-        <v>0.3959579962714912</v>
+        <v>1.055374454533464</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.161197584010438</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3448434153735036</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -951,8 +1011,14 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,40 +1026,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04404288028756653</v>
+        <v>0.1419164851731978</v>
       </c>
       <c r="D12">
-        <v>0.05499103712707765</v>
+        <v>0.0419921434910755</v>
       </c>
       <c r="E12">
-        <v>0.1205377615131944</v>
+        <v>0.1184192902238763</v>
       </c>
       <c r="F12">
-        <v>5.940551142647479</v>
+        <v>4.399145217757138</v>
       </c>
       <c r="G12">
-        <v>6.100581416904504</v>
+        <v>4.66347130909395</v>
       </c>
       <c r="H12">
-        <v>0.1012003956196494</v>
+        <v>0.08599733226863293</v>
       </c>
       <c r="I12">
-        <v>0.11191095511046</v>
+        <v>0.07277892244491202</v>
       </c>
       <c r="J12">
-        <v>3.107674585253619</v>
+        <v>1.954009333673866</v>
       </c>
       <c r="K12">
-        <v>4.198015914455027</v>
+        <v>2.754173151164409</v>
       </c>
       <c r="L12">
-        <v>0.2971044664264682</v>
+        <v>1.001989392430929</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.116142963856703</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2522187668226366</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1004,8 +1070,14 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,40 +1085,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03984519814573417</v>
+        <v>0.1244449552978892</v>
       </c>
       <c r="D13">
-        <v>0.06172516534379469</v>
+        <v>0.04033832887194144</v>
       </c>
       <c r="E13">
-        <v>0.0937191896675138</v>
+        <v>0.08774330673574404</v>
       </c>
       <c r="F13">
-        <v>5.462166455346079</v>
+        <v>4.042894233846738</v>
       </c>
       <c r="G13">
-        <v>5.674454649982636</v>
+        <v>4.336113450882976</v>
       </c>
       <c r="H13">
-        <v>0.1526273849752187</v>
+        <v>0.1389001602380517</v>
       </c>
       <c r="I13">
-        <v>0.1051367257849778</v>
+        <v>0.06887645321575331</v>
       </c>
       <c r="J13">
-        <v>2.897495180737451</v>
+        <v>1.833603452485136</v>
       </c>
       <c r="K13">
-        <v>3.923486722282945</v>
+        <v>2.579583612604978</v>
       </c>
       <c r="L13">
-        <v>0.2141186093796108</v>
+        <v>0.9416642422376924</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.043486688678541</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1773395321595643</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1057,8 +1129,14 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,40 +1144,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03656835534975755</v>
+        <v>0.1118077457065709</v>
       </c>
       <c r="D14">
-        <v>0.06730994249994637</v>
+        <v>0.04087766038962215</v>
       </c>
       <c r="E14">
-        <v>0.08022330422017188</v>
+        <v>0.07178343855656788</v>
       </c>
       <c r="F14">
-        <v>5.063593282983589</v>
+        <v>3.762821574313676</v>
       </c>
       <c r="G14">
-        <v>5.303764373302101</v>
+        <v>4.034307505020138</v>
       </c>
       <c r="H14">
-        <v>0.1981102915223545</v>
+        <v>0.1857873433321942</v>
       </c>
       <c r="I14">
-        <v>0.09784336930906701</v>
+        <v>0.06469962696240827</v>
       </c>
       <c r="J14">
-        <v>2.715725790333579</v>
+        <v>1.770169662141228</v>
       </c>
       <c r="K14">
-        <v>3.681341100215917</v>
+        <v>2.435782227870249</v>
       </c>
       <c r="L14">
-        <v>0.1666918686179244</v>
+        <v>0.8952611470973011</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.9797589903780732</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1360559800902266</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1110,8 +1188,14 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,40 +1203,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03549873549428462</v>
+        <v>0.1085275788674096</v>
       </c>
       <c r="D15">
-        <v>0.06845280661959663</v>
+        <v>0.04119055873397137</v>
       </c>
       <c r="E15">
-        <v>0.07736170118844621</v>
+        <v>0.06845355601131686</v>
       </c>
       <c r="F15">
-        <v>4.932948795068882</v>
+        <v>3.67663770613413</v>
       </c>
       <c r="G15">
-        <v>5.175930152408057</v>
+        <v>3.925152073695386</v>
       </c>
       <c r="H15">
-        <v>0.2090622685527848</v>
+        <v>0.1973048833245201</v>
       </c>
       <c r="I15">
-        <v>0.09480245898942652</v>
+        <v>0.06299428010950958</v>
       </c>
       <c r="J15">
-        <v>2.653500472848634</v>
+        <v>1.761313238324277</v>
       </c>
       <c r="K15">
-        <v>3.596103265970982</v>
+        <v>2.388156789536907</v>
       </c>
       <c r="L15">
-        <v>0.1559084850232892</v>
+        <v>0.8810958708852041</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.9572140085271599</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1270801013609884</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1163,8 +1247,14 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,40 +1262,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03194801730529129</v>
+        <v>0.1026827347384796</v>
       </c>
       <c r="D16">
-        <v>0.06501382298988645</v>
+        <v>0.04055143837949515</v>
       </c>
       <c r="E16">
-        <v>0.07416433884563567</v>
+        <v>0.0663455792790808</v>
       </c>
       <c r="F16">
-        <v>4.646083498739813</v>
+        <v>3.524266716210292</v>
       </c>
       <c r="G16">
-        <v>4.858231236199856</v>
+        <v>3.628542487753094</v>
       </c>
       <c r="H16">
-        <v>0.1900951308770971</v>
+        <v>0.1804694326558121</v>
       </c>
       <c r="I16">
-        <v>0.08265144909697675</v>
+        <v>0.05585243760472114</v>
       </c>
       <c r="J16">
-        <v>2.502571839510381</v>
+        <v>1.818476527999422</v>
       </c>
       <c r="K16">
-        <v>3.380108683851802</v>
+        <v>2.288208735794839</v>
       </c>
       <c r="L16">
-        <v>0.1488499971552706</v>
+        <v>0.8611318916412785</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.8982695977109501</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1231779905983643</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1216,8 +1306,14 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,40 +1321,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03095376344486667</v>
+        <v>0.104571562142965</v>
       </c>
       <c r="D17">
-        <v>0.05928009444880544</v>
+        <v>0.03917608684241536</v>
       </c>
       <c r="E17">
-        <v>0.07777104053392225</v>
+        <v>0.0719377777279</v>
       </c>
       <c r="F17">
-        <v>4.634217950637662</v>
+        <v>3.548331773864447</v>
       </c>
       <c r="G17">
-        <v>4.808561700229461</v>
+        <v>3.568699755180717</v>
       </c>
       <c r="H17">
-        <v>0.1495620955521417</v>
+        <v>0.1408171149098223</v>
       </c>
       <c r="I17">
-        <v>0.07718567012523003</v>
+        <v>0.05254639095941283</v>
       </c>
       <c r="J17">
-        <v>2.482022432519045</v>
+        <v>1.877409070274837</v>
       </c>
       <c r="K17">
-        <v>3.341127117933411</v>
+        <v>2.282805100906785</v>
       </c>
       <c r="L17">
-        <v>0.1659959176962786</v>
+        <v>0.8689600697337454</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.8846164516614579</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1397454366240147</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1269,8 +1365,14 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,40 +1380,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03208479076806725</v>
+        <v>0.1134079421436667</v>
       </c>
       <c r="D18">
-        <v>0.05243220684409877</v>
+        <v>0.03848755394641579</v>
       </c>
       <c r="E18">
-        <v>0.09271026013538197</v>
+        <v>0.08982342450524072</v>
       </c>
       <c r="F18">
-        <v>4.867240381109269</v>
+        <v>3.745955263940772</v>
       </c>
       <c r="G18">
-        <v>4.993271171975493</v>
+        <v>3.697260344364054</v>
       </c>
       <c r="H18">
-        <v>0.09683103892395195</v>
+        <v>0.08804715714084921</v>
       </c>
       <c r="I18">
-        <v>0.07646373668310513</v>
+        <v>0.0519253079301647</v>
       </c>
       <c r="J18">
-        <v>2.575842305475703</v>
+        <v>1.979963426054752</v>
       </c>
       <c r="K18">
-        <v>3.457865405635573</v>
+        <v>2.37161452501158</v>
       </c>
       <c r="L18">
-        <v>0.2165096372171789</v>
+        <v>0.9068822111841826</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.9131372766377837</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.186440904639781</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1322,8 +1424,14 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,40 +1439,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0357930807377862</v>
+        <v>0.1301652663277792</v>
       </c>
       <c r="D19">
-        <v>0.0468845233334676</v>
+        <v>0.04071966155982842</v>
       </c>
       <c r="E19">
-        <v>0.1235029883777123</v>
+        <v>0.1242258647387722</v>
       </c>
       <c r="F19">
-        <v>5.270442525377319</v>
+        <v>4.064990288002264</v>
       </c>
       <c r="G19">
-        <v>5.337619851611919</v>
+        <v>3.949588520940097</v>
       </c>
       <c r="H19">
-        <v>0.05447948992619445</v>
+        <v>0.04484338976598679</v>
       </c>
       <c r="I19">
-        <v>0.07988839083177179</v>
+        <v>0.05399088353631321</v>
       </c>
       <c r="J19">
-        <v>2.746914553092665</v>
+        <v>2.116597041848109</v>
       </c>
       <c r="K19">
-        <v>3.67653936256545</v>
+        <v>2.521157719020025</v>
       </c>
       <c r="L19">
-        <v>0.3062164097669751</v>
+        <v>0.963177674569053</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.9700874873816616</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2697427864281252</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1375,8 +1483,14 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,40 +1498,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04599822056901104</v>
+        <v>0.1655231695907844</v>
       </c>
       <c r="D20">
-        <v>0.04513560542505379</v>
+        <v>0.05127023930050001</v>
       </c>
       <c r="E20">
-        <v>0.1971992113290142</v>
+        <v>0.2033500877278733</v>
       </c>
       <c r="F20">
-        <v>6.180471316451957</v>
+        <v>4.744406576779028</v>
       </c>
       <c r="G20">
-        <v>6.165946316648615</v>
+        <v>4.574716368004601</v>
       </c>
       <c r="H20">
-        <v>0.03994819965805174</v>
+        <v>0.02682915129120733</v>
       </c>
       <c r="I20">
-        <v>0.09563181694514888</v>
+        <v>0.06343011918501418</v>
       </c>
       <c r="J20">
-        <v>3.152380284082142</v>
+        <v>2.361148675488209</v>
       </c>
       <c r="K20">
-        <v>4.212672216933413</v>
+        <v>2.862937232511371</v>
       </c>
       <c r="L20">
-        <v>0.5032859591924534</v>
+        <v>1.077341582148009</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.117180161267655</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.4522468988487987</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1428,8 +1542,14 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,40 +1557,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05595390939212308</v>
+        <v>0.1868028797096031</v>
       </c>
       <c r="D21">
-        <v>0.04802711130026882</v>
+        <v>0.05804779276696692</v>
       </c>
       <c r="E21">
-        <v>0.2270762032005749</v>
+        <v>0.2348947548062483</v>
       </c>
       <c r="F21">
-        <v>7.00385839910976</v>
+        <v>5.217491716461041</v>
       </c>
       <c r="G21">
-        <v>7.00659987728784</v>
+        <v>5.339139905574257</v>
       </c>
       <c r="H21">
-        <v>0.05596716745824537</v>
+        <v>0.03716732880647733</v>
       </c>
       <c r="I21">
-        <v>0.1239684240399761</v>
+        <v>0.07972775007413535</v>
       </c>
       <c r="J21">
-        <v>3.556111394521963</v>
+        <v>2.265013356693714</v>
       </c>
       <c r="K21">
-        <v>4.772466366620392</v>
+        <v>3.133821901427865</v>
       </c>
       <c r="L21">
-        <v>0.5847568897229962</v>
+        <v>1.1414362453297</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.264842684454635</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.5193901509085919</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1481,8 +1601,14 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,40 +1616,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06203734334928868</v>
+        <v>0.1978991862115294</v>
       </c>
       <c r="D22">
-        <v>0.04995155858767397</v>
+        <v>0.0620629106952606</v>
       </c>
       <c r="E22">
-        <v>0.2430053644035404</v>
+        <v>0.2516755054959603</v>
       </c>
       <c r="F22">
-        <v>7.528306382752277</v>
+        <v>5.503670434979114</v>
       </c>
       <c r="G22">
-        <v>7.548982079171935</v>
+        <v>5.848842647548963</v>
       </c>
       <c r="H22">
-        <v>0.06743936639306369</v>
+        <v>0.04447100218499234</v>
       </c>
       <c r="I22">
-        <v>0.1439519507455973</v>
+        <v>0.09085961969840817</v>
       </c>
       <c r="J22">
-        <v>3.816482875352222</v>
+        <v>2.180417446654019</v>
       </c>
       <c r="K22">
-        <v>5.136927789884368</v>
+        <v>3.302591402806655</v>
       </c>
       <c r="L22">
-        <v>0.6293252262281328</v>
+        <v>1.179657397271299</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.359421817058859</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.554405320963383</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1534,8 +1660,14 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,40 +1675,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05826443173650375</v>
+        <v>0.1913843475017529</v>
       </c>
       <c r="D23">
-        <v>0.04891013282788315</v>
+        <v>0.05937149871655478</v>
       </c>
       <c r="E23">
-        <v>0.2343829972217755</v>
+        <v>0.2423702955461167</v>
       </c>
       <c r="F23">
-        <v>7.26062150022787</v>
+        <v>5.37428239792888</v>
       </c>
       <c r="G23">
-        <v>7.27358668603938</v>
+        <v>5.567561295959365</v>
       </c>
       <c r="H23">
-        <v>0.06130129177952437</v>
+        <v>0.04061886865262654</v>
       </c>
       <c r="I23">
-        <v>0.1331955233507349</v>
+        <v>0.0848362167709622</v>
       </c>
       <c r="J23">
-        <v>3.684479427873157</v>
+        <v>2.26961099937472</v>
       </c>
       <c r="K23">
-        <v>4.954556956228828</v>
+        <v>3.230421685833051</v>
       </c>
       <c r="L23">
-        <v>0.6058531923383725</v>
+        <v>1.165656203170002</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.316054226333193</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.5363363090107924</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1587,8 +1719,14 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,40 +1734,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.04575942820657986</v>
+        <v>0.1651322034756362</v>
       </c>
       <c r="D24">
-        <v>0.0451206258247101</v>
+        <v>0.05190154444311901</v>
       </c>
       <c r="E24">
-        <v>0.2026132502123694</v>
+        <v>0.2091184617291333</v>
       </c>
       <c r="F24">
-        <v>6.240045933299456</v>
+        <v>4.792338414063948</v>
       </c>
       <c r="G24">
-        <v>6.221027741735895</v>
+        <v>4.615064999575623</v>
       </c>
       <c r="H24">
-        <v>0.04043978303278983</v>
+        <v>0.02714990174251497</v>
       </c>
       <c r="I24">
-        <v>0.09594535268348814</v>
+        <v>0.06337076847000933</v>
       </c>
       <c r="J24">
-        <v>3.179722158987886</v>
+        <v>2.385032929319493</v>
       </c>
       <c r="K24">
-        <v>4.252233634829025</v>
+        <v>2.891582352023434</v>
       </c>
       <c r="L24">
-        <v>0.5181007230680166</v>
+        <v>1.088221350588583</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.127991014205946</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.4661845901409549</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1640,8 +1778,14 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,40 +1793,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03399247821492679</v>
+        <v>0.1291803525064239</v>
       </c>
       <c r="D25">
-        <v>0.04125496634148451</v>
+        <v>0.04744849860994904</v>
       </c>
       <c r="E25">
-        <v>0.1695626108073327</v>
+        <v>0.176196022466506</v>
       </c>
       <c r="F25">
-        <v>5.163509800719595</v>
+        <v>4.023917430424547</v>
       </c>
       <c r="G25">
-        <v>5.110444772448147</v>
+        <v>3.815391756494733</v>
       </c>
       <c r="H25">
-        <v>0.02249879215959494</v>
+        <v>0.01495758349423504</v>
       </c>
       <c r="I25">
-        <v>0.0622096746132117</v>
+        <v>0.04245781478814603</v>
       </c>
       <c r="J25">
-        <v>2.647387546436391</v>
+        <v>2.054130681863995</v>
       </c>
       <c r="K25">
-        <v>3.509794645151842</v>
+        <v>2.431488663752376</v>
       </c>
       <c r="L25">
-        <v>0.4264221469310172</v>
+        <v>0.9670652383052527</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.893997182613532</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3880357500080009</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,6 +1835,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
